--- a/Data/country_data/total_equity_risk_premium.xlsx
+++ b/Data/country_data/total_equity_risk_premium.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canne\Documents\MFE Winter\230O\prem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E420EAF-C02B-46B8-90CA-33C934353375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Argentina</t>
   </si>
@@ -44,6 +38,9 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
   </si>
   <si>
     <t>Korea</t>
@@ -94,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +155,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -212,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,27 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,24 +267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,19 +442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>2000</v>
       </c>
@@ -566,7 +514,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,10 +522,10 @@
         <v>0.1101</v>
       </c>
       <c r="C2">
-        <v>0.14510000000000001</v>
+        <v>0.1451</v>
       </c>
       <c r="D2">
-        <v>0.18010000000000001</v>
+        <v>0.1801</v>
       </c>
       <c r="E2">
         <v>0.1457</v>
@@ -586,7 +534,7 @@
         <v>0.1459</v>
       </c>
       <c r="G2">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="H2">
         <v>0.1166</v>
@@ -598,279 +546,279 @@
         <v>0.185</v>
       </c>
       <c r="K2">
-        <v>0.14249999999999999</v>
+        <v>0.1425</v>
       </c>
       <c r="L2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M2">
         <v>0.15</v>
       </c>
       <c r="N2">
-        <v>0.14799999999999999</v>
+        <v>0.148</v>
       </c>
       <c r="O2">
-        <v>0.14749999999999999</v>
+        <v>0.1475</v>
       </c>
       <c r="P2">
         <v>0.17</v>
       </c>
       <c r="Q2">
-        <v>0.16456000000000001</v>
+        <v>0.16456</v>
       </c>
       <c r="R2">
         <v>0.14936009595142</v>
       </c>
       <c r="S2">
-        <v>0.11424164373946021</v>
+        <v>0.1142416437394602</v>
       </c>
       <c r="T2">
-        <v>0.13598151563795061</v>
+        <v>0.1359815156379506</v>
       </c>
       <c r="U2">
-        <v>0.14079630867759671</v>
+        <v>0.1407963086775967</v>
       </c>
       <c r="V2">
-        <v>0.16340579658656321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.1634057965865632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.10009999999999999</v>
+        <v>0.1001</v>
       </c>
       <c r="C3">
-        <v>0.10009999999999999</v>
+        <v>0.1001</v>
       </c>
       <c r="D3">
-        <v>0.15759999999999999</v>
+        <v>0.1576</v>
       </c>
       <c r="E3">
-        <v>0.13070000000000001</v>
+        <v>0.1307</v>
       </c>
       <c r="F3">
         <v>0.1084</v>
       </c>
       <c r="G3">
-        <v>0.10199999999999999</v>
+        <v>0.102</v>
       </c>
       <c r="H3">
-        <v>8.660000000000001E-2</v>
+        <v>0.08660000000000001</v>
       </c>
       <c r="I3">
-        <v>7.7899999999999997E-2</v>
+        <v>0.0779</v>
       </c>
       <c r="J3">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="K3">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="L3">
         <v>0.08</v>
       </c>
       <c r="M3">
-        <v>8.6249999999999993E-2</v>
+        <v>0.08624999999999999</v>
       </c>
       <c r="N3">
-        <v>8.4250000000000005E-2</v>
+        <v>0.08425000000000001</v>
       </c>
       <c r="O3">
-        <v>7.85E-2</v>
+        <v>0.0785</v>
       </c>
       <c r="P3">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q3">
         <v>0.10968</v>
       </c>
       <c r="R3">
-        <v>9.960348398311078E-2</v>
+        <v>0.09960348398311078</v>
       </c>
       <c r="S3">
-        <v>8.5432897320065981E-2</v>
+        <v>0.08543289732006598</v>
       </c>
       <c r="T3">
         <v>0.1012967946023566</v>
       </c>
       <c r="U3">
-        <v>8.1628427644929544E-2</v>
+        <v>0.08162842764492954</v>
       </c>
       <c r="V3">
-        <v>7.629513553633499E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.07629513553633499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.7100000000000007E-2</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="C4">
-        <v>6.7100000000000007E-2</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="D4">
-        <v>6.0100000000000001E-2</v>
+        <v>0.0601</v>
       </c>
       <c r="E4">
-        <v>6.0199999999999997E-2</v>
+        <v>0.0602</v>
       </c>
       <c r="F4">
-        <v>6.0400000000000002E-2</v>
+        <v>0.0604</v>
       </c>
       <c r="G4">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="H4">
-        <v>5.96E-2</v>
+        <v>0.0596</v>
       </c>
       <c r="I4">
-        <v>5.8400000000000001E-2</v>
+        <v>0.0584</v>
       </c>
       <c r="J4">
-        <v>7.1000000000000008E-2</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="K4">
-        <v>5.8500000000000003E-2</v>
+        <v>0.0585</v>
       </c>
       <c r="L4">
-        <v>6.0500000000000012E-2</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="M4">
-        <v>7.0499999999999993E-2</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="N4">
-        <v>6.8500000000000005E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O4">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P4">
-        <v>6.6500000000000004E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q4">
-        <v>7.2020000000000001E-2</v>
+        <v>0.07202</v>
       </c>
       <c r="R4">
-        <v>6.5491992272878136E-2</v>
+        <v>0.06549199227287814</v>
       </c>
       <c r="S4">
-        <v>5.7768180541875137E-2</v>
+        <v>0.05776818054187514</v>
       </c>
       <c r="T4">
-        <v>6.9366816753705152E-2</v>
+        <v>0.06936681675370515</v>
       </c>
       <c r="U4">
-        <v>5.8939992060974493E-2</v>
+        <v>0.05893999206097449</v>
       </c>
       <c r="V4">
-        <v>5.4015076792294683E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05401507679229468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.4600000000000005E-2</v>
+        <v>0.0646</v>
       </c>
       <c r="C5">
-        <v>6.4600000000000005E-2</v>
+        <v>0.0646</v>
       </c>
       <c r="D5">
-        <v>6.5350000000000005E-2</v>
+        <v>0.06535000000000001</v>
       </c>
       <c r="E5">
-        <v>6.1699999999999998E-2</v>
+        <v>0.0617</v>
       </c>
       <c r="F5">
-        <v>6.1899999999999997E-2</v>
+        <v>0.0619</v>
       </c>
       <c r="G5">
         <v>0.06</v>
       </c>
       <c r="H5">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="I5">
-        <v>5.8400000000000001E-2</v>
+        <v>0.0584</v>
       </c>
       <c r="J5">
-        <v>7.1000000000000008E-2</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="K5">
-        <v>5.8500000000000003E-2</v>
+        <v>0.0585</v>
       </c>
       <c r="L5">
-        <v>6.0500000000000012E-2</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="M5">
-        <v>7.0499999999999993E-2</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="N5">
-        <v>6.8500000000000005E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O5">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P5">
-        <v>6.6500000000000004E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q5">
-        <v>7.2020000000000001E-2</v>
+        <v>0.07202</v>
       </c>
       <c r="R5">
-        <v>6.5491992272878136E-2</v>
+        <v>0.06549199227287814</v>
       </c>
       <c r="S5">
-        <v>5.8912210183078517E-2</v>
+        <v>0.05891221018307852</v>
       </c>
       <c r="T5">
-        <v>6.9366816753705152E-2</v>
+        <v>0.06936681675370515</v>
       </c>
       <c r="U5">
-        <v>5.8939992060974493E-2</v>
+        <v>0.05893999206097449</v>
       </c>
       <c r="V5">
-        <v>5.4015076792294683E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05401507679229468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.5100000000000009E-2</v>
+        <v>0.08510000000000001</v>
       </c>
       <c r="C6">
-        <v>8.5100000000000009E-2</v>
+        <v>0.08510000000000001</v>
       </c>
       <c r="D6">
-        <v>7.1349999999999997E-2</v>
+        <v>0.07135</v>
       </c>
       <c r="E6">
-        <v>6.7699999999999996E-2</v>
+        <v>0.0677</v>
       </c>
       <c r="F6">
-        <v>6.7900000000000002E-2</v>
+        <v>0.0679</v>
       </c>
       <c r="G6">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="H6">
-        <v>6.9349999999999995E-2</v>
+        <v>0.06934999999999999</v>
       </c>
       <c r="I6">
-        <v>6.8150000000000002E-2</v>
+        <v>0.06815</v>
       </c>
       <c r="J6">
-        <v>8.8999999999999996E-2</v>
+        <v>0.089</v>
       </c>
       <c r="K6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="L6">
         <v>0.08</v>
@@ -879,90 +827,90 @@
         <v>0.09</v>
       </c>
       <c r="N6">
-        <v>8.7999999999999995E-2</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="O6">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="P6">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q6">
-        <v>9.2319999999999999E-2</v>
+        <v>0.09232</v>
       </c>
       <c r="R6">
-        <v>8.3958363725034152E-2</v>
+        <v>0.08395836372503415</v>
       </c>
       <c r="S6">
-        <v>7.2744568572173943E-2</v>
+        <v>0.07274456857217394</v>
       </c>
       <c r="T6">
-        <v>8.6020491474766508E-2</v>
+        <v>0.08602049147476651</v>
       </c>
       <c r="U6">
-        <v>7.0773568267507914E-2</v>
+        <v>0.07077356826750791</v>
       </c>
       <c r="V6">
-        <v>6.5635656450950999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.065635656450951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.0100000000000005E-2</v>
+        <v>0.0801</v>
       </c>
       <c r="C7">
-        <v>8.0100000000000005E-2</v>
+        <v>0.0801</v>
       </c>
       <c r="D7">
-        <v>6.7599999999999993E-2</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="E7">
-        <v>6.6200000000000009E-2</v>
+        <v>0.06620000000000001</v>
       </c>
       <c r="F7">
-        <v>6.6400000000000001E-2</v>
+        <v>0.0664</v>
       </c>
       <c r="G7">
-        <v>6.8250000000000005E-2</v>
+        <v>0.06825000000000001</v>
       </c>
       <c r="H7">
-        <v>6.9349999999999995E-2</v>
+        <v>0.06934999999999999</v>
       </c>
       <c r="I7">
-        <v>6.8150000000000002E-2</v>
+        <v>0.06815</v>
       </c>
       <c r="J7">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="K7">
-        <v>8.2500000000000004E-2</v>
+        <v>0.0825</v>
       </c>
       <c r="L7">
-        <v>8.6000000000000007E-2</v>
+        <v>0.08600000000000001</v>
       </c>
       <c r="M7">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="N7">
-        <v>0.13300000000000001</v>
+        <v>0.133</v>
       </c>
       <c r="O7">
-        <v>0.16250000000000001</v>
+        <v>0.1625</v>
       </c>
       <c r="P7">
         <v>0.17</v>
       </c>
       <c r="Q7">
-        <v>0.16456000000000001</v>
+        <v>0.16456</v>
       </c>
       <c r="R7">
         <v>0.14936009595142</v>
       </c>
       <c r="S7">
-        <v>0.12578594284614891</v>
+        <v>0.1257859428461489</v>
       </c>
       <c r="T7">
         <v>0.1498804471720695</v>
@@ -974,48 +922,48 @@
         <v>0.10049739542692</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.4600000000000005E-2</v>
+        <v>0.0646</v>
       </c>
       <c r="C8">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="D8">
-        <v>6.0100000000000001E-2</v>
+        <v>0.0601</v>
       </c>
       <c r="E8">
-        <v>6.0199999999999997E-2</v>
+        <v>0.0602</v>
       </c>
       <c r="F8">
-        <v>6.0400000000000002E-2</v>
+        <v>0.0604</v>
       </c>
       <c r="G8">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="H8">
-        <v>5.96E-2</v>
+        <v>0.0596</v>
       </c>
       <c r="I8">
-        <v>5.8400000000000001E-2</v>
+        <v>0.0584</v>
       </c>
       <c r="J8">
-        <v>7.1000000000000008E-2</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="K8">
-        <v>6.0749999999999998E-2</v>
+        <v>0.06075</v>
       </c>
       <c r="L8">
-        <v>8.6000000000000007E-2</v>
+        <v>0.08600000000000001</v>
       </c>
       <c r="M8">
-        <v>0.16500000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="N8">
-        <v>0.20799999999999999</v>
+        <v>0.208</v>
       </c>
       <c r="O8">
         <v>0.2</v>
@@ -1030,45 +978,45 @@
         <v>0.1989884692290893</v>
       </c>
       <c r="S8">
-        <v>0.15459468926554309</v>
+        <v>0.1545946892655431</v>
       </c>
       <c r="T8">
         <v>0.1498804471720695</v>
       </c>
       <c r="U8">
-        <v>9.639815433879835E-2</v>
+        <v>0.09639815433879835</v>
       </c>
       <c r="V8">
-        <v>8.2061738975968967E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.08206173897596897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.5100000000000009E-2</v>
+        <v>0.08510000000000001</v>
       </c>
       <c r="C9">
-        <v>8.5100000000000009E-2</v>
+        <v>0.08510000000000001</v>
       </c>
       <c r="D9">
         <v>0.1051</v>
       </c>
       <c r="E9">
-        <v>6.9949999999999998E-2</v>
+        <v>0.06995</v>
       </c>
       <c r="F9">
-        <v>9.3399999999999997E-2</v>
+        <v>0.0934</v>
       </c>
       <c r="G9">
-        <v>8.8499999999999995E-2</v>
+        <v>0.0885</v>
       </c>
       <c r="H9">
-        <v>8.660000000000001E-2</v>
+        <v>0.08660000000000001</v>
       </c>
       <c r="I9">
-        <v>8.5400000000000004E-2</v>
+        <v>0.0854</v>
       </c>
       <c r="J9">
         <v>0.11</v>
@@ -1077,1057 +1025,1125 @@
         <v>0.09</v>
       </c>
       <c r="L9">
-        <v>8.6000000000000007E-2</v>
+        <v>0.08600000000000001</v>
       </c>
       <c r="M9">
         <v>0.09</v>
       </c>
       <c r="N9">
-        <v>8.7999999999999995E-2</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="O9">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="P9">
-        <v>9.0499999999999997E-2</v>
+        <v>0.0905</v>
       </c>
       <c r="Q9">
-        <v>9.708E-2</v>
+        <v>0.09708</v>
       </c>
       <c r="R9">
-        <v>8.8190240516153234E-2</v>
+        <v>0.08819024051615323</v>
       </c>
       <c r="S9">
-        <v>7.2744568572173943E-2</v>
+        <v>0.07274456857217394</v>
       </c>
       <c r="T9">
-        <v>8.6020491474766508E-2</v>
+        <v>0.08602049147476651</v>
       </c>
       <c r="U9">
-        <v>7.0773568267507914E-2</v>
+        <v>0.07077356826750791</v>
       </c>
       <c r="V9">
-        <v>6.8518958170767988E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.06851895817076799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.8100000000000008E-2</v>
+        <v>0.1201</v>
       </c>
       <c r="C10">
-        <v>6.8100000000000008E-2</v>
+        <v>0.1201</v>
       </c>
       <c r="D10">
-        <v>6.5350000000000005E-2</v>
+        <v>0.1726</v>
       </c>
       <c r="E10">
-        <v>6.2449999999999999E-2</v>
+        <v>0.1307</v>
       </c>
       <c r="F10">
-        <v>6.2649999999999997E-2</v>
+        <v>0.1309</v>
       </c>
       <c r="G10">
-        <v>6.1499999999999999E-2</v>
+        <v>0.123</v>
       </c>
       <c r="H10">
-        <v>6.1850000000000002E-2</v>
+        <v>0.1016</v>
       </c>
       <c r="I10">
-        <v>5.9899999999999988E-2</v>
+        <v>0.0929</v>
       </c>
       <c r="J10">
-        <v>7.400000000000001E-2</v>
+        <v>0.12875</v>
       </c>
       <c r="K10">
-        <v>6.0749999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L10">
-        <v>6.275E-2</v>
+        <v>0.09125</v>
       </c>
       <c r="M10">
-        <v>7.2749999999999995E-2</v>
+        <v>0.096</v>
       </c>
       <c r="N10">
-        <v>6.8500000000000005E-2</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="O10">
-        <v>5.8999999999999997E-2</v>
+        <v>0.083</v>
       </c>
       <c r="P10">
-        <v>6.6500000000000004E-2</v>
+        <v>0.0905</v>
       </c>
       <c r="Q10">
-        <v>7.034E-2</v>
+        <v>0.09708</v>
       </c>
       <c r="R10">
-        <v>6.3953127985198477E-2</v>
+        <v>0.08819024051615323</v>
       </c>
       <c r="S10">
-        <v>5.6520148206016897E-2</v>
+        <v>0.07617665749578408</v>
       </c>
       <c r="T10">
-        <v>6.6486857967356205E-2</v>
+        <v>0.08602049147476651</v>
       </c>
       <c r="U10">
-        <v>5.6893584145558937E-2</v>
+        <v>0.07077356826750791</v>
       </c>
       <c r="V10">
-        <v>5.2005502866361637E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.065635656450951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="C11">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="D11">
-        <v>6.5350000000000005E-2</v>
+        <v>0.06535000000000001</v>
       </c>
       <c r="E11">
-        <v>6.2449999999999999E-2</v>
+        <v>0.06245</v>
       </c>
       <c r="F11">
-        <v>6.2649999999999997E-2</v>
+        <v>0.06265</v>
       </c>
       <c r="G11">
-        <v>6.1499999999999999E-2</v>
+        <v>0.0615</v>
       </c>
       <c r="H11">
-        <v>6.1850000000000002E-2</v>
+        <v>0.06185</v>
       </c>
       <c r="I11">
-        <v>6.0650000000000003E-2</v>
+        <v>0.05989999999999999</v>
       </c>
       <c r="J11">
-        <v>7.6250000000000012E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="K11">
-        <v>6.3E-2</v>
+        <v>0.06075</v>
       </c>
       <c r="L11">
-        <v>6.7250000000000004E-2</v>
+        <v>0.06275</v>
       </c>
       <c r="M11">
-        <v>7.7249999999999999E-2</v>
+        <v>0.07275</v>
       </c>
       <c r="N11">
-        <v>7.5250000000000011E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O11">
-        <v>6.8000000000000005E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P11">
-        <v>7.5500000000000012E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q11">
-        <v>8.14E-2</v>
+        <v>0.07034</v>
       </c>
       <c r="R11">
-        <v>7.3955745855116314E-2</v>
+        <v>0.06395312798519848</v>
       </c>
       <c r="S11">
-        <v>6.4632358389095423E-2</v>
+        <v>0.0565201482060169</v>
       </c>
       <c r="T11">
-        <v>7.6253674721061357E-2</v>
+        <v>0.06648685796735621</v>
       </c>
       <c r="U11">
-        <v>6.3833576206533432E-2</v>
+        <v>0.05689358414555894</v>
       </c>
       <c r="V11">
-        <v>5.8820579658656322E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05200550286636164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="C12">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="D12">
-        <v>6.7599999999999993E-2</v>
+        <v>0.06535000000000001</v>
       </c>
       <c r="E12">
-        <v>6.6200000000000009E-2</v>
+        <v>0.06245</v>
       </c>
       <c r="F12">
-        <v>6.6400000000000001E-2</v>
+        <v>0.06265</v>
       </c>
       <c r="G12">
-        <v>6.4500000000000002E-2</v>
+        <v>0.0615</v>
       </c>
       <c r="H12">
-        <v>6.409999999999999E-2</v>
+        <v>0.06185</v>
       </c>
       <c r="I12">
-        <v>6.2899999999999998E-2</v>
+        <v>0.06065</v>
       </c>
       <c r="J12">
-        <v>0.08</v>
+        <v>0.07625000000000001</v>
       </c>
       <c r="K12">
-        <v>6.9000000000000006E-2</v>
+        <v>0.063</v>
       </c>
       <c r="L12">
-        <v>7.2500000000000009E-2</v>
+        <v>0.06725</v>
       </c>
       <c r="M12">
-        <v>8.249999999999999E-2</v>
+        <v>0.07725</v>
       </c>
       <c r="N12">
-        <v>8.0500000000000002E-2</v>
+        <v>0.07525000000000001</v>
       </c>
       <c r="O12">
-        <v>7.400000000000001E-2</v>
+        <v>0.068</v>
       </c>
       <c r="P12">
-        <v>7.5500000000000012E-2</v>
+        <v>0.07550000000000001</v>
       </c>
       <c r="Q12">
-        <v>8.14E-2</v>
+        <v>0.0814</v>
       </c>
       <c r="R12">
-        <v>7.3955745855116314E-2</v>
+        <v>0.07395574585511631</v>
       </c>
       <c r="S12">
-        <v>6.4632358389095423E-2</v>
+        <v>0.06463235838909542</v>
       </c>
       <c r="T12">
-        <v>7.6253674721061357E-2</v>
+        <v>0.07625367472106136</v>
       </c>
       <c r="U12">
-        <v>6.3833576206533432E-2</v>
+        <v>0.06383357620653343</v>
       </c>
       <c r="V12">
-        <v>6.2664981951745621E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05882057965865632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.13009999999999999</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C13">
-        <v>0.13009999999999999</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="D13">
-        <v>0.1726</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="E13">
-        <v>0.13070000000000001</v>
+        <v>0.06620000000000001</v>
       </c>
       <c r="F13">
-        <v>0.13089999999999999</v>
+        <v>0.0664</v>
       </c>
       <c r="G13">
-        <v>0.123</v>
+        <v>0.0645</v>
       </c>
       <c r="H13">
-        <v>0.1016</v>
+        <v>0.06409999999999999</v>
       </c>
       <c r="I13">
-        <v>0.1004</v>
+        <v>0.0629</v>
       </c>
       <c r="J13">
-        <v>0.185</v>
+        <v>0.08</v>
       </c>
       <c r="K13">
-        <v>0.14249999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="L13">
-        <v>0.14000000000000001</v>
+        <v>0.07250000000000001</v>
       </c>
       <c r="M13">
-        <v>0.15</v>
+        <v>0.08249999999999999</v>
       </c>
       <c r="N13">
-        <v>0.16300000000000001</v>
+        <v>0.0805</v>
       </c>
       <c r="O13">
-        <v>0.16250000000000001</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="P13">
-        <v>0.17</v>
+        <v>0.07550000000000001</v>
       </c>
       <c r="Q13">
-        <v>0.16456000000000001</v>
+        <v>0.0814</v>
       </c>
       <c r="R13">
-        <v>0.14936009595142</v>
+        <v>0.07395574585511631</v>
       </c>
       <c r="S13">
-        <v>0.12578594284614891</v>
+        <v>0.06463235838909542</v>
       </c>
       <c r="T13">
-        <v>0.1498804471720695</v>
+        <v>0.07625367472106136</v>
       </c>
       <c r="U13">
-        <v>0.116150439435418</v>
+        <v>0.06383357620653343</v>
       </c>
       <c r="V13">
-        <v>0.1101957739390316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.06266498195174562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.5100000000000004E-2</v>
+        <v>0.1301</v>
       </c>
       <c r="C14">
-        <v>9.5100000000000004E-2</v>
+        <v>0.1301</v>
       </c>
       <c r="D14">
-        <v>7.51E-2</v>
+        <v>0.1726</v>
       </c>
       <c r="E14">
-        <v>6.9949999999999998E-2</v>
+        <v>0.1307</v>
       </c>
       <c r="F14">
-        <v>7.0150000000000004E-2</v>
+        <v>0.1309</v>
       </c>
       <c r="G14">
-        <v>6.8250000000000005E-2</v>
+        <v>0.123</v>
       </c>
       <c r="H14">
-        <v>6.9349999999999995E-2</v>
+        <v>0.1016</v>
       </c>
       <c r="I14">
-        <v>6.8150000000000002E-2</v>
+        <v>0.1004</v>
       </c>
       <c r="J14">
-        <v>8.8999999999999996E-2</v>
+        <v>0.185</v>
       </c>
       <c r="K14">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1425</v>
       </c>
       <c r="L14">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="M14">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="N14">
-        <v>8.4250000000000005E-2</v>
+        <v>0.163</v>
       </c>
       <c r="O14">
-        <v>7.85E-2</v>
+        <v>0.1625</v>
       </c>
       <c r="P14">
-        <v>7.5500000000000012E-2</v>
+        <v>0.17</v>
       </c>
       <c r="Q14">
-        <v>8.14E-2</v>
+        <v>0.16456</v>
       </c>
       <c r="R14">
-        <v>7.3955745855116314E-2</v>
+        <v>0.14936009595142</v>
       </c>
       <c r="S14">
-        <v>6.4632358389095423E-2</v>
+        <v>0.1257859428461489</v>
       </c>
       <c r="T14">
-        <v>7.6253674721061357E-2</v>
+        <v>0.1498804471720695</v>
       </c>
       <c r="U14">
-        <v>6.3833576206533432E-2</v>
+        <v>0.116150439435418</v>
       </c>
       <c r="V14">
-        <v>5.8820579658656322E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.1101957739390316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.0100000000000005E-2</v>
+        <v>0.0951</v>
       </c>
       <c r="C15">
-        <v>8.0100000000000005E-2</v>
+        <v>0.0951</v>
       </c>
       <c r="D15">
-        <v>7.51E-2</v>
+        <v>0.0751</v>
       </c>
       <c r="E15">
-        <v>6.9949999999999998E-2</v>
+        <v>0.06995</v>
       </c>
       <c r="F15">
-        <v>9.3399999999999997E-2</v>
+        <v>0.07015</v>
       </c>
       <c r="G15">
-        <v>0.108</v>
+        <v>0.06825000000000001</v>
       </c>
       <c r="H15">
-        <v>0.1016</v>
+        <v>0.06934999999999999</v>
       </c>
       <c r="I15">
-        <v>0.1004</v>
+        <v>0.06815</v>
       </c>
       <c r="J15">
-        <v>0.14749999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="K15">
-        <v>9.7500000000000003E-2</v>
+        <v>0.075</v>
       </c>
       <c r="L15">
-        <v>9.8750000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M15">
-        <v>0.10125000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="N15">
-        <v>9.4E-2</v>
+        <v>0.08425000000000001</v>
       </c>
       <c r="O15">
-        <v>8.3000000000000004E-2</v>
+        <v>0.0785</v>
       </c>
       <c r="P15">
-        <v>8.5999999999999993E-2</v>
+        <v>0.07550000000000001</v>
       </c>
       <c r="Q15">
-        <v>9.2319999999999999E-2</v>
+        <v>0.0814</v>
       </c>
       <c r="R15">
-        <v>8.3958363725034152E-2</v>
+        <v>0.07395574585511631</v>
       </c>
       <c r="S15">
-        <v>7.2744568572173943E-2</v>
+        <v>0.06463235838909542</v>
       </c>
       <c r="T15">
-        <v>8.6020491474766508E-2</v>
+        <v>0.07625367472106136</v>
       </c>
       <c r="U15">
-        <v>7.0773568267507914E-2</v>
+        <v>0.06383357620653343</v>
       </c>
       <c r="V15">
-        <v>6.5635656450950999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05882057965865632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.7100000000000007E-2</v>
+        <v>0.0801</v>
       </c>
       <c r="C16">
-        <v>6.7100000000000007E-2</v>
+        <v>0.0801</v>
       </c>
       <c r="D16">
-        <v>6.3850000000000004E-2</v>
+        <v>0.0751</v>
       </c>
       <c r="E16">
-        <v>6.1699999999999998E-2</v>
+        <v>0.06995</v>
       </c>
       <c r="F16">
-        <v>6.1899999999999997E-2</v>
+        <v>0.0934</v>
       </c>
       <c r="G16">
-        <v>0.06</v>
+        <v>0.108</v>
       </c>
       <c r="H16">
-        <v>6.1100000000000002E-2</v>
+        <v>0.1016</v>
       </c>
       <c r="I16">
-        <v>5.9899999999999988E-2</v>
+        <v>0.1004</v>
       </c>
       <c r="J16">
-        <v>7.400000000000001E-2</v>
+        <v>0.1475</v>
       </c>
       <c r="K16">
-        <v>6.0749999999999998E-2</v>
+        <v>0.0975</v>
       </c>
       <c r="L16">
-        <v>6.5000000000000002E-2</v>
+        <v>0.09875</v>
       </c>
       <c r="M16">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10125</v>
       </c>
       <c r="N16">
-        <v>7.3000000000000009E-2</v>
+        <v>0.094</v>
       </c>
       <c r="O16">
-        <v>6.275E-2</v>
+        <v>0.083</v>
       </c>
       <c r="P16">
-        <v>7.0250000000000007E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q16">
-        <v>7.5800000000000006E-2</v>
+        <v>0.09232</v>
       </c>
       <c r="R16">
-        <v>6.8954436920157403E-2</v>
+        <v>0.08395836372503415</v>
       </c>
       <c r="S16">
-        <v>6.0576253297556157E-2</v>
+        <v>0.07274456857217394</v>
       </c>
       <c r="T16">
-        <v>7.1370266344208788E-2</v>
+        <v>0.08602049147476651</v>
       </c>
       <c r="U16">
-        <v>6.0363580176046178E-2</v>
+        <v>0.07077356826750791</v>
       </c>
       <c r="V16">
-        <v>5.5413041262508983E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.065635656450951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="C17">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="D17">
-        <v>6.5350000000000005E-2</v>
+        <v>0.06385</v>
       </c>
       <c r="E17">
-        <v>6.2449999999999999E-2</v>
+        <v>0.0617</v>
       </c>
       <c r="F17">
-        <v>6.2649999999999997E-2</v>
+        <v>0.0619</v>
       </c>
       <c r="G17">
-        <v>5.7000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H17">
-        <v>5.8099999999999999E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="I17">
-        <v>5.5399999999999998E-2</v>
+        <v>0.05989999999999999</v>
       </c>
       <c r="J17">
-        <v>6.5000000000000002E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="K17">
-        <v>5.3999999999999999E-2</v>
+        <v>0.06075</v>
       </c>
       <c r="L17">
-        <v>5.7500000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="M17">
-        <v>6.7500000000000004E-2</v>
+        <v>0.075</v>
       </c>
       <c r="N17">
-        <v>6.5500000000000003E-2</v>
+        <v>0.07300000000000001</v>
       </c>
       <c r="O17">
-        <v>5.7500000000000002E-2</v>
+        <v>0.06275</v>
       </c>
       <c r="P17">
-        <v>6.5000000000000002E-2</v>
+        <v>0.07025000000000001</v>
       </c>
       <c r="Q17">
-        <v>7.034E-2</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="R17">
-        <v>6.3953127985198477E-2</v>
+        <v>0.0689544369201574</v>
       </c>
       <c r="S17">
-        <v>5.7768180541875137E-2</v>
+        <v>0.06057625329755616</v>
       </c>
       <c r="T17">
-        <v>6.7989445160233919E-2</v>
+        <v>0.07137026634420879</v>
       </c>
       <c r="U17">
-        <v>5.7961275231862702E-2</v>
+        <v>0.06036358017604618</v>
       </c>
       <c r="V17">
-        <v>5.3053976219022358E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05541304126250898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1101</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="C18">
-        <v>9.5100000000000004E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="D18">
-        <v>0.1051</v>
+        <v>0.06535000000000001</v>
       </c>
       <c r="E18">
-        <v>6.9949999999999998E-2</v>
+        <v>0.06245</v>
       </c>
       <c r="F18">
-        <v>7.0150000000000004E-2</v>
+        <v>0.06265</v>
       </c>
       <c r="G18">
-        <v>6.6000000000000003E-2</v>
+        <v>0.057</v>
       </c>
       <c r="H18">
-        <v>6.6349999999999992E-2</v>
+        <v>0.0581</v>
       </c>
       <c r="I18">
-        <v>6.515E-2</v>
+        <v>0.0554</v>
       </c>
       <c r="J18">
-        <v>0.08</v>
+        <v>0.065</v>
       </c>
       <c r="K18">
-        <v>6.9000000000000006E-2</v>
+        <v>0.054</v>
       </c>
       <c r="L18">
-        <v>7.2500000000000009E-2</v>
+        <v>0.0575</v>
       </c>
       <c r="M18">
-        <v>8.249999999999999E-2</v>
+        <v>0.0675</v>
       </c>
       <c r="N18">
-        <v>8.0500000000000002E-2</v>
+        <v>0.0655</v>
       </c>
       <c r="O18">
-        <v>7.400000000000001E-2</v>
+        <v>0.0575</v>
       </c>
       <c r="P18">
-        <v>8.5999999999999993E-2</v>
+        <v>0.065</v>
       </c>
       <c r="Q18">
-        <v>0.1017</v>
+        <v>0.07034</v>
       </c>
       <c r="R18">
-        <v>9.2422117307272317E-2</v>
+        <v>0.06395312798519848</v>
       </c>
       <c r="S18">
-        <v>7.9608746419394222E-2</v>
+        <v>0.05776818054187514</v>
       </c>
       <c r="T18">
-        <v>9.428472103559396E-2</v>
+        <v>0.06798944516023392</v>
       </c>
       <c r="U18">
-        <v>7.3709718754843279E-2</v>
+        <v>0.0579612752318627</v>
       </c>
       <c r="V18">
-        <v>6.8518958170767988E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05305397621902236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.9600000000000009E-2</v>
+        <v>0.1101</v>
       </c>
       <c r="C19">
-        <v>6.9600000000000009E-2</v>
+        <v>0.0951</v>
       </c>
       <c r="D19">
-        <v>9.3850000000000003E-2</v>
+        <v>0.1051</v>
       </c>
       <c r="E19">
-        <v>6.6200000000000009E-2</v>
+        <v>0.06995</v>
       </c>
       <c r="F19">
-        <v>6.7900000000000002E-2</v>
+        <v>0.07015</v>
       </c>
       <c r="G19">
-        <v>6.1499999999999999E-2</v>
+        <v>0.066</v>
       </c>
       <c r="H19">
-        <v>6.1100000000000002E-2</v>
+        <v>0.06634999999999999</v>
       </c>
       <c r="I19">
-        <v>5.8400000000000001E-2</v>
+        <v>0.06515</v>
       </c>
       <c r="J19">
-        <v>7.1000000000000008E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K19">
-        <v>5.8500000000000003E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="L19">
-        <v>6.0500000000000012E-2</v>
+        <v>0.07250000000000001</v>
       </c>
       <c r="M19">
-        <v>7.0499999999999993E-2</v>
+        <v>0.08249999999999999</v>
       </c>
       <c r="N19">
-        <v>6.8500000000000005E-2</v>
+        <v>0.0805</v>
       </c>
       <c r="O19">
-        <v>5.8999999999999997E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="P19">
-        <v>6.6500000000000004E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q19">
-        <v>7.356E-2</v>
+        <v>0.1017</v>
       </c>
       <c r="R19">
-        <v>6.6902617869917844E-2</v>
+        <v>0.09242211730727232</v>
       </c>
       <c r="S19">
-        <v>5.8912210183078517E-2</v>
+        <v>0.07960874641939422</v>
       </c>
       <c r="T19">
-        <v>6.9366816753705152E-2</v>
+        <v>0.09428472103559396</v>
       </c>
       <c r="U19">
-        <v>5.8939992060974493E-2</v>
+        <v>0.07370971875484328</v>
       </c>
       <c r="V19">
-        <v>5.4015076792294683E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.06851895817076799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C20">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="D20">
-        <v>6.3850000000000004E-2</v>
+        <v>0.09385</v>
       </c>
       <c r="E20">
-        <v>6.1699999999999998E-2</v>
+        <v>0.06620000000000001</v>
       </c>
       <c r="F20">
-        <v>6.1899999999999997E-2</v>
+        <v>0.0679</v>
       </c>
       <c r="G20">
-        <v>0.06</v>
+        <v>0.0615</v>
       </c>
       <c r="H20">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="I20">
-        <v>5.9899999999999988E-2</v>
+        <v>0.0584</v>
       </c>
       <c r="J20">
-        <v>7.400000000000001E-2</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="K20">
-        <v>6.3E-2</v>
+        <v>0.0585</v>
       </c>
       <c r="L20">
-        <v>6.7250000000000004E-2</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="M20">
-        <v>7.7249999999999999E-2</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="N20">
-        <v>8.0500000000000002E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O20">
-        <v>7.400000000000001E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P20">
-        <v>8.5999999999999993E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q20">
-        <v>9.2319999999999999E-2</v>
+        <v>0.07356</v>
       </c>
       <c r="R20">
-        <v>8.3958363725034152E-2</v>
+        <v>0.06690261786991784</v>
       </c>
       <c r="S20">
-        <v>7.6176657495784075E-2</v>
+        <v>0.05891221018307852</v>
       </c>
       <c r="T20">
-        <v>9.0152606255180234E-2</v>
+        <v>0.06936681675370515</v>
       </c>
       <c r="U20">
-        <v>7.3709718754843279E-2</v>
+        <v>0.05893999206097449</v>
       </c>
       <c r="V20">
-        <v>7.629513553633499E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05401507679229468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.2100000000000002E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C21">
-        <v>6.2100000000000002E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="D21">
-        <v>5.8599999999999999E-2</v>
+        <v>0.06385</v>
       </c>
       <c r="E21">
-        <v>5.8700000000000002E-2</v>
+        <v>0.0617</v>
       </c>
       <c r="F21">
-        <v>5.8900000000000001E-2</v>
+        <v>0.0619</v>
       </c>
       <c r="G21">
-        <v>4.8000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H21">
-        <v>5.8099999999999999E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="I21">
-        <v>5.6899999999999999E-2</v>
+        <v>0.05989999999999999</v>
       </c>
       <c r="J21">
-        <v>6.8000000000000005E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="K21">
-        <v>5.6249999999999988E-2</v>
+        <v>0.063</v>
       </c>
       <c r="L21">
-        <v>6.0500000000000012E-2</v>
+        <v>0.06725</v>
       </c>
       <c r="M21">
-        <v>7.0499999999999993E-2</v>
+        <v>0.07725</v>
       </c>
       <c r="N21">
-        <v>6.8500000000000005E-2</v>
+        <v>0.0805</v>
       </c>
       <c r="O21">
-        <v>5.8999999999999997E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="P21">
-        <v>6.6500000000000004E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q21">
-        <v>7.2020000000000001E-2</v>
+        <v>0.09232</v>
       </c>
       <c r="R21">
-        <v>6.5491992272878136E-2</v>
+        <v>0.08395836372503415</v>
       </c>
       <c r="S21">
-        <v>5.7768180541875137E-2</v>
+        <v>0.07617665749578408</v>
       </c>
       <c r="T21">
-        <v>6.7989445160233919E-2</v>
+        <v>0.09015260625518023</v>
       </c>
       <c r="U21">
-        <v>5.7961275231862702E-2</v>
+        <v>0.07370971875484328</v>
       </c>
       <c r="V21">
-        <v>5.3053976219022358E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.07629513553633499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.9600000000000009E-2</v>
+        <v>0.0621</v>
       </c>
       <c r="C22">
-        <v>6.9600000000000009E-2</v>
+        <v>0.0621</v>
       </c>
       <c r="D22">
-        <v>6.7599999999999993E-2</v>
+        <v>0.0586</v>
       </c>
       <c r="E22">
-        <v>6.6200000000000009E-2</v>
+        <v>0.0587</v>
       </c>
       <c r="F22">
-        <v>6.6400000000000001E-2</v>
+        <v>0.0589</v>
       </c>
       <c r="G22">
-        <v>6.4500000000000002E-2</v>
+        <v>0.048</v>
       </c>
       <c r="H22">
-        <v>6.409999999999999E-2</v>
+        <v>0.0581</v>
       </c>
       <c r="I22">
-        <v>6.2899999999999998E-2</v>
+        <v>0.0569</v>
       </c>
       <c r="J22">
-        <v>0.08</v>
+        <v>0.068</v>
       </c>
       <c r="K22">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05624999999999999</v>
       </c>
       <c r="L22">
-        <v>7.2500000000000009E-2</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="M22">
-        <v>8.249999999999999E-2</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="N22">
-        <v>8.0500000000000002E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O22">
-        <v>7.400000000000001E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P22">
-        <v>8.1500000000000003E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q22">
-        <v>8.7559999999999999E-2</v>
+        <v>0.07202</v>
       </c>
       <c r="R22">
-        <v>7.9598248243275105E-2</v>
+        <v>0.06549199227287814</v>
       </c>
       <c r="S22">
-        <v>6.9208476953908943E-2</v>
+        <v>0.05776818054187514</v>
       </c>
       <c r="T22">
-        <v>8.1763161094946329E-2</v>
+        <v>0.06798944516023392</v>
       </c>
       <c r="U22">
-        <v>6.7748443522980567E-2</v>
+        <v>0.0579612752318627</v>
       </c>
       <c r="V22">
-        <v>6.2664981951745621E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05305397621902236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.10009999999999999</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C23">
-        <v>0.10009999999999999</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="D23">
-        <v>0.1726</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="E23">
-        <v>0.1457</v>
+        <v>0.06620000000000001</v>
       </c>
       <c r="F23">
-        <v>0.13089999999999999</v>
+        <v>0.0664</v>
       </c>
       <c r="G23">
-        <v>0.10199999999999999</v>
+        <v>0.0645</v>
       </c>
       <c r="H23">
-        <v>9.4099999999999989E-2</v>
+        <v>0.06409999999999999</v>
       </c>
       <c r="I23">
-        <v>9.2899999999999996E-2</v>
+        <v>0.0629</v>
       </c>
       <c r="J23">
-        <v>0.12875</v>
+        <v>0.08</v>
       </c>
       <c r="K23">
-        <v>9.7500000000000003E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="L23">
-        <v>9.1249999999999998E-2</v>
+        <v>0.07250000000000001</v>
       </c>
       <c r="M23">
-        <v>0.10125000000000001</v>
+        <v>0.08249999999999999</v>
       </c>
       <c r="N23">
-        <v>9.4E-2</v>
+        <v>0.0805</v>
       </c>
       <c r="O23">
-        <v>8.3000000000000004E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="P23">
-        <v>9.0499999999999997E-2</v>
+        <v>0.0815</v>
       </c>
       <c r="Q23">
-        <v>9.708E-2</v>
+        <v>0.08756</v>
       </c>
       <c r="R23">
-        <v>9.2422117307272317E-2</v>
+        <v>0.0795982482432751</v>
       </c>
       <c r="S23">
-        <v>7.9608746419394222E-2</v>
+        <v>0.06920847695390894</v>
       </c>
       <c r="T23">
-        <v>0.1095610241631841</v>
+        <v>0.08176316109494633</v>
       </c>
       <c r="U23">
-        <v>9.639815433879835E-2</v>
+        <v>0.06774844352298057</v>
       </c>
       <c r="V23">
-        <v>0.10049739542692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.06266498195174562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.4100000000000004E-2</v>
+        <v>0.1001</v>
       </c>
       <c r="C24">
-        <v>6.4100000000000004E-2</v>
+        <v>0.1001</v>
       </c>
       <c r="D24">
-        <v>6.3850000000000004E-2</v>
+        <v>0.1726</v>
       </c>
       <c r="E24">
-        <v>6.1699999999999998E-2</v>
+        <v>0.1457</v>
       </c>
       <c r="F24">
-        <v>6.0400000000000002E-2</v>
+        <v>0.1309</v>
       </c>
       <c r="G24">
-        <v>5.7000000000000002E-2</v>
+        <v>0.102</v>
       </c>
       <c r="H24">
-        <v>5.8099999999999999E-2</v>
+        <v>0.09409999999999999</v>
       </c>
       <c r="I24">
-        <v>5.5399999999999998E-2</v>
+        <v>0.0929</v>
       </c>
       <c r="J24">
-        <v>6.5000000000000002E-2</v>
+        <v>0.12875</v>
       </c>
       <c r="K24">
-        <v>5.3999999999999999E-2</v>
+        <v>0.0975</v>
       </c>
       <c r="L24">
-        <v>5.7500000000000002E-2</v>
+        <v>0.09125</v>
       </c>
       <c r="M24">
-        <v>6.7500000000000004E-2</v>
+        <v>0.10125</v>
       </c>
       <c r="N24">
-        <v>6.5500000000000003E-2</v>
+        <v>0.094</v>
       </c>
       <c r="O24">
-        <v>5.7500000000000002E-2</v>
+        <v>0.083</v>
       </c>
       <c r="P24">
-        <v>6.5000000000000002E-2</v>
+        <v>0.0905</v>
       </c>
       <c r="Q24">
-        <v>7.034E-2</v>
+        <v>0.09708</v>
       </c>
       <c r="R24">
-        <v>6.3953127985198477E-2</v>
+        <v>0.09242211730727232</v>
       </c>
       <c r="S24">
-        <v>5.6520148206016897E-2</v>
+        <v>0.07960874641939422</v>
       </c>
       <c r="T24">
-        <v>6.6486857967356205E-2</v>
+        <v>0.1095610241631841</v>
       </c>
       <c r="U24">
-        <v>5.6893584145558937E-2</v>
+        <v>0.09639815433879835</v>
       </c>
       <c r="V24">
-        <v>5.2005502866361637E-2</v>
+        <v>0.10049739542692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.0641</v>
+      </c>
+      <c r="C25">
+        <v>0.0641</v>
+      </c>
+      <c r="D25">
+        <v>0.06385</v>
+      </c>
+      <c r="E25">
+        <v>0.0617</v>
+      </c>
+      <c r="F25">
+        <v>0.0604</v>
+      </c>
+      <c r="G25">
+        <v>0.057</v>
+      </c>
+      <c r="H25">
+        <v>0.0581</v>
+      </c>
+      <c r="I25">
+        <v>0.0554</v>
+      </c>
+      <c r="J25">
+        <v>0.065</v>
+      </c>
+      <c r="K25">
+        <v>0.054</v>
+      </c>
+      <c r="L25">
+        <v>0.0575</v>
+      </c>
+      <c r="M25">
+        <v>0.0675</v>
+      </c>
+      <c r="N25">
+        <v>0.0655</v>
+      </c>
+      <c r="O25">
+        <v>0.0575</v>
+      </c>
+      <c r="P25">
+        <v>0.065</v>
+      </c>
+      <c r="Q25">
+        <v>0.07034</v>
+      </c>
+      <c r="R25">
+        <v>0.06395312798519848</v>
+      </c>
+      <c r="S25">
+        <v>0.0565201482060169</v>
+      </c>
+      <c r="T25">
+        <v>0.06648685796735621</v>
+      </c>
+      <c r="U25">
+        <v>0.05689358414555894</v>
+      </c>
+      <c r="V25">
+        <v>0.05200550286636164</v>
       </c>
     </row>
   </sheetData>

--- a/Data/country_data/total_equity_risk_premium.xlsx
+++ b/Data/country_data/total_equity_risk_premium.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canne\Documents\MFE Winter\230O\prem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED4EB5-DFAA-4054-89CE-7DB71D2DF4F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2532" yWindow="1176" windowWidth="20508" windowHeight="11184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Argentina</t>
   </si>
@@ -38,9 +44,6 @@
   </si>
   <si>
     <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
   </si>
   <si>
     <t>Korea</t>
@@ -91,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +158,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -201,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +244,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +296,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,14 +489,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>2000</v>
       </c>
@@ -514,7 +563,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +571,10 @@
         <v>0.1101</v>
       </c>
       <c r="C2">
-        <v>0.1451</v>
+        <v>0.14510000000000001</v>
       </c>
       <c r="D2">
-        <v>0.1801</v>
+        <v>0.18010000000000001</v>
       </c>
       <c r="E2">
         <v>0.1457</v>
@@ -534,7 +583,7 @@
         <v>0.1459</v>
       </c>
       <c r="G2">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="H2">
         <v>0.1166</v>
@@ -546,279 +595,279 @@
         <v>0.185</v>
       </c>
       <c r="K2">
-        <v>0.1425</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="L2">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M2">
         <v>0.15</v>
       </c>
       <c r="N2">
-        <v>0.148</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="O2">
-        <v>0.1475</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="P2">
         <v>0.17</v>
       </c>
       <c r="Q2">
-        <v>0.16456</v>
+        <v>0.16456000000000001</v>
       </c>
       <c r="R2">
         <v>0.14936009595142</v>
       </c>
       <c r="S2">
-        <v>0.1142416437394602</v>
+        <v>0.11424164373946021</v>
       </c>
       <c r="T2">
-        <v>0.1359815156379506</v>
+        <v>0.13598151563795061</v>
       </c>
       <c r="U2">
-        <v>0.1407963086775967</v>
+        <v>0.14079630867759671</v>
       </c>
       <c r="V2">
-        <v>0.1634057965865632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>0.16340579658656321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1001</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="C3">
-        <v>0.1001</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="D3">
-        <v>0.1576</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="E3">
-        <v>0.1307</v>
+        <v>0.13070000000000001</v>
       </c>
       <c r="F3">
         <v>0.1084</v>
       </c>
       <c r="G3">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="H3">
-        <v>0.08660000000000001</v>
+        <v>8.660000000000001E-2</v>
       </c>
       <c r="I3">
-        <v>0.0779</v>
+        <v>7.7899999999999997E-2</v>
       </c>
       <c r="J3">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K3">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L3">
         <v>0.08</v>
       </c>
       <c r="M3">
-        <v>0.08624999999999999</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="N3">
-        <v>0.08425000000000001</v>
+        <v>8.4250000000000005E-2</v>
       </c>
       <c r="O3">
-        <v>0.0785</v>
+        <v>7.85E-2</v>
       </c>
       <c r="P3">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q3">
         <v>0.10968</v>
       </c>
       <c r="R3">
-        <v>0.09960348398311078</v>
+        <v>9.960348398311078E-2</v>
       </c>
       <c r="S3">
-        <v>0.08543289732006598</v>
+        <v>8.5432897320065981E-2</v>
       </c>
       <c r="T3">
         <v>0.1012967946023566</v>
       </c>
       <c r="U3">
-        <v>0.08162842764492954</v>
+        <v>8.1628427644929544E-2</v>
       </c>
       <c r="V3">
-        <v>0.07629513553633499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>7.629513553633499E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06710000000000001</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="C4">
-        <v>0.06710000000000001</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="D4">
-        <v>0.0601</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>0.0602</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="F4">
-        <v>0.0604</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="G4">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H4">
-        <v>0.0596</v>
+        <v>5.96E-2</v>
       </c>
       <c r="I4">
-        <v>0.0584</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="J4">
-        <v>0.07100000000000001</v>
+        <v>7.1000000000000008E-2</v>
       </c>
       <c r="K4">
-        <v>0.0585</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="L4">
-        <v>0.06050000000000001</v>
+        <v>6.0500000000000012E-2</v>
       </c>
       <c r="M4">
-        <v>0.07049999999999999</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="N4">
-        <v>0.06850000000000001</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="O4">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="P4">
-        <v>0.0665</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="Q4">
-        <v>0.07202</v>
+        <v>7.2020000000000001E-2</v>
       </c>
       <c r="R4">
-        <v>0.06549199227287814</v>
+        <v>6.5491992272878136E-2</v>
       </c>
       <c r="S4">
-        <v>0.05776818054187514</v>
+        <v>5.7768180541875137E-2</v>
       </c>
       <c r="T4">
-        <v>0.06936681675370515</v>
+        <v>6.9366816753705152E-2</v>
       </c>
       <c r="U4">
-        <v>0.05893999206097449</v>
+        <v>5.8939992060974493E-2</v>
       </c>
       <c r="V4">
-        <v>0.05401507679229468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>5.4015076792294683E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0646</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="C5">
-        <v>0.0646</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="D5">
-        <v>0.06535000000000001</v>
+        <v>6.5350000000000005E-2</v>
       </c>
       <c r="E5">
-        <v>0.0617</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="F5">
-        <v>0.0619</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="G5">
         <v>0.06</v>
       </c>
       <c r="H5">
-        <v>0.0611</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="I5">
-        <v>0.0584</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="J5">
-        <v>0.07100000000000001</v>
+        <v>7.1000000000000008E-2</v>
       </c>
       <c r="K5">
-        <v>0.0585</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="L5">
-        <v>0.06050000000000001</v>
+        <v>6.0500000000000012E-2</v>
       </c>
       <c r="M5">
-        <v>0.07049999999999999</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="N5">
-        <v>0.06850000000000001</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="O5">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="P5">
-        <v>0.0665</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="Q5">
-        <v>0.07202</v>
+        <v>7.2020000000000001E-2</v>
       </c>
       <c r="R5">
-        <v>0.06549199227287814</v>
+        <v>6.5491992272878136E-2</v>
       </c>
       <c r="S5">
-        <v>0.05891221018307852</v>
+        <v>5.8912210183078517E-2</v>
       </c>
       <c r="T5">
-        <v>0.06936681675370515</v>
+        <v>6.9366816753705152E-2</v>
       </c>
       <c r="U5">
-        <v>0.05893999206097449</v>
+        <v>5.8939992060974493E-2</v>
       </c>
       <c r="V5">
-        <v>0.05401507679229468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>5.4015076792294683E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08510000000000001</v>
+        <v>8.5100000000000009E-2</v>
       </c>
       <c r="C6">
-        <v>0.08510000000000001</v>
+        <v>8.5100000000000009E-2</v>
       </c>
       <c r="D6">
-        <v>0.07135</v>
+        <v>7.1349999999999997E-2</v>
       </c>
       <c r="E6">
-        <v>0.0677</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="F6">
-        <v>0.0679</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="G6">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H6">
-        <v>0.06934999999999999</v>
+        <v>6.9349999999999995E-2</v>
       </c>
       <c r="I6">
-        <v>0.06815</v>
+        <v>6.8150000000000002E-2</v>
       </c>
       <c r="J6">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="K6">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L6">
         <v>0.08</v>
@@ -827,90 +876,90 @@
         <v>0.09</v>
       </c>
       <c r="N6">
-        <v>0.08799999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="O6">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="P6">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q6">
-        <v>0.09232</v>
+        <v>9.2319999999999999E-2</v>
       </c>
       <c r="R6">
-        <v>0.08395836372503415</v>
+        <v>8.3958363725034152E-2</v>
       </c>
       <c r="S6">
-        <v>0.07274456857217394</v>
+        <v>7.2744568572173943E-2</v>
       </c>
       <c r="T6">
-        <v>0.08602049147476651</v>
+        <v>8.6020491474766508E-2</v>
       </c>
       <c r="U6">
-        <v>0.07077356826750791</v>
+        <v>7.0773568267507914E-2</v>
       </c>
       <c r="V6">
-        <v>0.065635656450951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>6.5635656450950999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0801</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="C7">
-        <v>0.0801</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="D7">
-        <v>0.06759999999999999</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="E7">
-        <v>0.06620000000000001</v>
+        <v>6.6200000000000009E-2</v>
       </c>
       <c r="F7">
-        <v>0.0664</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="G7">
-        <v>0.06825000000000001</v>
+        <v>6.8250000000000005E-2</v>
       </c>
       <c r="H7">
-        <v>0.06934999999999999</v>
+        <v>6.9349999999999995E-2</v>
       </c>
       <c r="I7">
-        <v>0.06815</v>
+        <v>6.8150000000000002E-2</v>
       </c>
       <c r="J7">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K7">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="L7">
-        <v>0.08600000000000001</v>
+        <v>8.6000000000000007E-2</v>
       </c>
       <c r="M7">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="N7">
-        <v>0.133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="O7">
-        <v>0.1625</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="P7">
         <v>0.17</v>
       </c>
       <c r="Q7">
-        <v>0.16456</v>
+        <v>0.16456000000000001</v>
       </c>
       <c r="R7">
         <v>0.14936009595142</v>
       </c>
       <c r="S7">
-        <v>0.1257859428461489</v>
+        <v>0.12578594284614891</v>
       </c>
       <c r="T7">
         <v>0.1498804471720695</v>
@@ -922,48 +971,48 @@
         <v>0.10049739542692</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0646</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="C8">
-        <v>0.0611</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="D8">
-        <v>0.0601</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>0.0602</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="F8">
-        <v>0.0604</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="G8">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H8">
-        <v>0.0596</v>
+        <v>5.96E-2</v>
       </c>
       <c r="I8">
-        <v>0.0584</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="J8">
-        <v>0.07100000000000001</v>
+        <v>7.1000000000000008E-2</v>
       </c>
       <c r="K8">
-        <v>0.06075</v>
+        <v>6.0749999999999998E-2</v>
       </c>
       <c r="L8">
-        <v>0.08600000000000001</v>
+        <v>8.6000000000000007E-2</v>
       </c>
       <c r="M8">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="N8">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="O8">
         <v>0.2</v>
@@ -978,45 +1027,45 @@
         <v>0.1989884692290893</v>
       </c>
       <c r="S8">
-        <v>0.1545946892655431</v>
+        <v>0.15459468926554309</v>
       </c>
       <c r="T8">
         <v>0.1498804471720695</v>
       </c>
       <c r="U8">
-        <v>0.09639815433879835</v>
+        <v>9.639815433879835E-2</v>
       </c>
       <c r="V8">
-        <v>0.08206173897596897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>8.2061738975968967E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08510000000000001</v>
+        <v>8.5100000000000009E-2</v>
       </c>
       <c r="C9">
-        <v>0.08510000000000001</v>
+        <v>8.5100000000000009E-2</v>
       </c>
       <c r="D9">
         <v>0.1051</v>
       </c>
       <c r="E9">
-        <v>0.06995</v>
+        <v>6.9949999999999998E-2</v>
       </c>
       <c r="F9">
-        <v>0.0934</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="G9">
-        <v>0.0885</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="H9">
-        <v>0.08660000000000001</v>
+        <v>8.660000000000001E-2</v>
       </c>
       <c r="I9">
-        <v>0.0854</v>
+        <v>8.5400000000000004E-2</v>
       </c>
       <c r="J9">
         <v>0.11</v>
@@ -1025,1125 +1074,1057 @@
         <v>0.09</v>
       </c>
       <c r="L9">
-        <v>0.08600000000000001</v>
+        <v>8.6000000000000007E-2</v>
       </c>
       <c r="M9">
         <v>0.09</v>
       </c>
       <c r="N9">
-        <v>0.08799999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="O9">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="P9">
-        <v>0.0905</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="Q9">
-        <v>0.09708</v>
+        <v>9.708E-2</v>
       </c>
       <c r="R9">
-        <v>0.08819024051615323</v>
+        <v>8.8190240516153234E-2</v>
       </c>
       <c r="S9">
-        <v>0.07274456857217394</v>
+        <v>7.2744568572173943E-2</v>
       </c>
       <c r="T9">
-        <v>0.08602049147476651</v>
+        <v>8.6020491474766508E-2</v>
       </c>
       <c r="U9">
-        <v>0.07077356826750791</v>
+        <v>7.0773568267507914E-2</v>
       </c>
       <c r="V9">
-        <v>0.06851895817076799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>6.8518958170767988E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1201</v>
+        <v>6.8100000000000008E-2</v>
       </c>
       <c r="C10">
-        <v>0.1201</v>
+        <v>6.8100000000000008E-2</v>
       </c>
       <c r="D10">
-        <v>0.1726</v>
+        <v>6.5350000000000005E-2</v>
       </c>
       <c r="E10">
-        <v>0.1307</v>
+        <v>6.2449999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>0.1309</v>
+        <v>6.2649999999999997E-2</v>
       </c>
       <c r="G10">
-        <v>0.123</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="H10">
-        <v>0.1016</v>
+        <v>6.1850000000000002E-2</v>
       </c>
       <c r="I10">
-        <v>0.0929</v>
+        <v>5.9899999999999988E-2</v>
       </c>
       <c r="J10">
-        <v>0.12875</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="K10">
-        <v>0.09</v>
+        <v>6.0749999999999998E-2</v>
       </c>
       <c r="L10">
-        <v>0.09125</v>
+        <v>6.275E-2</v>
       </c>
       <c r="M10">
-        <v>0.096</v>
+        <v>7.2749999999999995E-2</v>
       </c>
       <c r="N10">
-        <v>0.08799999999999999</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="O10">
-        <v>0.083</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="P10">
-        <v>0.0905</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="Q10">
-        <v>0.09708</v>
+        <v>7.034E-2</v>
       </c>
       <c r="R10">
-        <v>0.08819024051615323</v>
+        <v>6.3953127985198477E-2</v>
       </c>
       <c r="S10">
-        <v>0.07617665749578408</v>
+        <v>5.6520148206016897E-2</v>
       </c>
       <c r="T10">
-        <v>0.08602049147476651</v>
+        <v>6.6486857967356205E-2</v>
       </c>
       <c r="U10">
-        <v>0.07077356826750791</v>
+        <v>5.6893584145558937E-2</v>
       </c>
       <c r="V10">
-        <v>0.065635656450951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>5.2005502866361637E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.06810000000000001</v>
+        <v>6.8100000000000008E-2</v>
       </c>
       <c r="C11">
-        <v>0.06810000000000001</v>
+        <v>6.8100000000000008E-2</v>
       </c>
       <c r="D11">
-        <v>0.06535000000000001</v>
+        <v>6.5350000000000005E-2</v>
       </c>
       <c r="E11">
-        <v>0.06245</v>
+        <v>6.2449999999999999E-2</v>
       </c>
       <c r="F11">
-        <v>0.06265</v>
+        <v>6.2649999999999997E-2</v>
       </c>
       <c r="G11">
-        <v>0.0615</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="H11">
-        <v>0.06185</v>
+        <v>6.1850000000000002E-2</v>
       </c>
       <c r="I11">
-        <v>0.05989999999999999</v>
+        <v>6.0650000000000003E-2</v>
       </c>
       <c r="J11">
-        <v>0.07400000000000001</v>
+        <v>7.6250000000000012E-2</v>
       </c>
       <c r="K11">
-        <v>0.06075</v>
+        <v>6.3E-2</v>
       </c>
       <c r="L11">
-        <v>0.06275</v>
+        <v>6.7250000000000004E-2</v>
       </c>
       <c r="M11">
-        <v>0.07275</v>
+        <v>7.7249999999999999E-2</v>
       </c>
       <c r="N11">
-        <v>0.06850000000000001</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="O11">
-        <v>0.059</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="P11">
-        <v>0.0665</v>
+        <v>7.5500000000000012E-2</v>
       </c>
       <c r="Q11">
-        <v>0.07034</v>
+        <v>8.14E-2</v>
       </c>
       <c r="R11">
-        <v>0.06395312798519848</v>
+        <v>7.3955745855116314E-2</v>
       </c>
       <c r="S11">
-        <v>0.0565201482060169</v>
+        <v>6.4632358389095423E-2</v>
       </c>
       <c r="T11">
-        <v>0.06648685796735621</v>
+        <v>7.6253674721061357E-2</v>
       </c>
       <c r="U11">
-        <v>0.05689358414555894</v>
+        <v>6.3833576206533432E-2</v>
       </c>
       <c r="V11">
-        <v>0.05200550286636164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>5.8820579658656322E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.06810000000000001</v>
+        <v>6.9600000000000009E-2</v>
       </c>
       <c r="C12">
-        <v>0.06810000000000001</v>
+        <v>6.9600000000000009E-2</v>
       </c>
       <c r="D12">
-        <v>0.06535000000000001</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="E12">
-        <v>0.06245</v>
+        <v>6.6200000000000009E-2</v>
       </c>
       <c r="F12">
-        <v>0.06265</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="G12">
-        <v>0.0615</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="H12">
-        <v>0.06185</v>
+        <v>6.409999999999999E-2</v>
       </c>
       <c r="I12">
-        <v>0.06065</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="J12">
-        <v>0.07625000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="K12">
-        <v>0.063</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="L12">
-        <v>0.06725</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="M12">
-        <v>0.07725</v>
+        <v>8.249999999999999E-2</v>
       </c>
       <c r="N12">
-        <v>0.07525000000000001</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="O12">
-        <v>0.068</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="P12">
-        <v>0.07550000000000001</v>
+        <v>7.5500000000000012E-2</v>
       </c>
       <c r="Q12">
-        <v>0.0814</v>
+        <v>8.14E-2</v>
       </c>
       <c r="R12">
-        <v>0.07395574585511631</v>
+        <v>7.3955745855116314E-2</v>
       </c>
       <c r="S12">
-        <v>0.06463235838909542</v>
+        <v>6.4632358389095423E-2</v>
       </c>
       <c r="T12">
-        <v>0.07625367472106136</v>
+        <v>7.6253674721061357E-2</v>
       </c>
       <c r="U12">
-        <v>0.06383357620653343</v>
+        <v>6.3833576206533432E-2</v>
       </c>
       <c r="V12">
-        <v>0.05882057965865632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>6.2664981951745621E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.06960000000000001</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="C13">
-        <v>0.06960000000000001</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="D13">
-        <v>0.06759999999999999</v>
+        <v>0.1726</v>
       </c>
       <c r="E13">
-        <v>0.06620000000000001</v>
+        <v>0.13070000000000001</v>
       </c>
       <c r="F13">
-        <v>0.0664</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="G13">
-        <v>0.0645</v>
+        <v>0.123</v>
       </c>
       <c r="H13">
-        <v>0.06409999999999999</v>
+        <v>0.1016</v>
       </c>
       <c r="I13">
-        <v>0.0629</v>
+        <v>0.1004</v>
       </c>
       <c r="J13">
-        <v>0.08</v>
+        <v>0.185</v>
       </c>
       <c r="K13">
-        <v>0.06900000000000001</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="L13">
-        <v>0.07250000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M13">
-        <v>0.08249999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="N13">
-        <v>0.0805</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="O13">
-        <v>0.07400000000000001</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="P13">
-        <v>0.07550000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="Q13">
-        <v>0.0814</v>
+        <v>0.16456000000000001</v>
       </c>
       <c r="R13">
-        <v>0.07395574585511631</v>
+        <v>0.14936009595142</v>
       </c>
       <c r="S13">
-        <v>0.06463235838909542</v>
+        <v>0.12578594284614891</v>
       </c>
       <c r="T13">
-        <v>0.07625367472106136</v>
+        <v>0.1498804471720695</v>
       </c>
       <c r="U13">
-        <v>0.06383357620653343</v>
+        <v>0.116150439435418</v>
       </c>
       <c r="V13">
-        <v>0.06266498195174562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>0.1101957739390316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1301</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="C14">
-        <v>0.1301</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="D14">
-        <v>0.1726</v>
+        <v>7.51E-2</v>
       </c>
       <c r="E14">
-        <v>0.1307</v>
+        <v>6.9949999999999998E-2</v>
       </c>
       <c r="F14">
-        <v>0.1309</v>
+        <v>7.0150000000000004E-2</v>
       </c>
       <c r="G14">
-        <v>0.123</v>
+        <v>6.8250000000000005E-2</v>
       </c>
       <c r="H14">
-        <v>0.1016</v>
+        <v>6.9349999999999995E-2</v>
       </c>
       <c r="I14">
-        <v>0.1004</v>
+        <v>6.8150000000000002E-2</v>
       </c>
       <c r="J14">
-        <v>0.185</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="K14">
-        <v>0.1425</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L14">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="M14">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="N14">
-        <v>0.163</v>
+        <v>8.4250000000000005E-2</v>
       </c>
       <c r="O14">
-        <v>0.1625</v>
+        <v>7.85E-2</v>
       </c>
       <c r="P14">
-        <v>0.17</v>
+        <v>7.5500000000000012E-2</v>
       </c>
       <c r="Q14">
-        <v>0.16456</v>
+        <v>8.14E-2</v>
       </c>
       <c r="R14">
-        <v>0.14936009595142</v>
+        <v>7.3955745855116314E-2</v>
       </c>
       <c r="S14">
-        <v>0.1257859428461489</v>
+        <v>6.4632358389095423E-2</v>
       </c>
       <c r="T14">
-        <v>0.1498804471720695</v>
+        <v>7.6253674721061357E-2</v>
       </c>
       <c r="U14">
-        <v>0.116150439435418</v>
+        <v>6.3833576206533432E-2</v>
       </c>
       <c r="V14">
-        <v>0.1101957739390316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>5.8820579658656322E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0951</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="C15">
-        <v>0.0951</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="D15">
-        <v>0.0751</v>
+        <v>7.51E-2</v>
       </c>
       <c r="E15">
-        <v>0.06995</v>
+        <v>6.9949999999999998E-2</v>
       </c>
       <c r="F15">
-        <v>0.07015</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="G15">
-        <v>0.06825000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="H15">
-        <v>0.06934999999999999</v>
+        <v>0.1016</v>
       </c>
       <c r="I15">
-        <v>0.06815</v>
+        <v>0.1004</v>
       </c>
       <c r="J15">
-        <v>0.089</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="K15">
-        <v>0.075</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="L15">
-        <v>0.08</v>
+        <v>9.8750000000000004E-2</v>
       </c>
       <c r="M15">
-        <v>0.09</v>
+        <v>0.10125000000000001</v>
       </c>
       <c r="N15">
-        <v>0.08425000000000001</v>
+        <v>9.4E-2</v>
       </c>
       <c r="O15">
-        <v>0.0785</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="P15">
-        <v>0.07550000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q15">
-        <v>0.0814</v>
+        <v>9.2319999999999999E-2</v>
       </c>
       <c r="R15">
-        <v>0.07395574585511631</v>
+        <v>8.3958363725034152E-2</v>
       </c>
       <c r="S15">
-        <v>0.06463235838909542</v>
+        <v>7.2744568572173943E-2</v>
       </c>
       <c r="T15">
-        <v>0.07625367472106136</v>
+        <v>8.6020491474766508E-2</v>
       </c>
       <c r="U15">
-        <v>0.06383357620653343</v>
+        <v>7.0773568267507914E-2</v>
       </c>
       <c r="V15">
-        <v>0.05882057965865632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>6.5635656450950999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0801</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="C16">
-        <v>0.0801</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="D16">
-        <v>0.0751</v>
+        <v>6.3850000000000004E-2</v>
       </c>
       <c r="E16">
-        <v>0.06995</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="F16">
-        <v>0.0934</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="G16">
-        <v>0.108</v>
+        <v>0.06</v>
       </c>
       <c r="H16">
-        <v>0.1016</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="I16">
-        <v>0.1004</v>
+        <v>5.9899999999999988E-2</v>
       </c>
       <c r="J16">
-        <v>0.1475</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="K16">
-        <v>0.0975</v>
+        <v>6.0749999999999998E-2</v>
       </c>
       <c r="L16">
-        <v>0.09875</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M16">
-        <v>0.10125</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N16">
-        <v>0.094</v>
+        <v>7.3000000000000009E-2</v>
       </c>
       <c r="O16">
-        <v>0.083</v>
+        <v>6.275E-2</v>
       </c>
       <c r="P16">
-        <v>0.08599999999999999</v>
+        <v>7.0250000000000007E-2</v>
       </c>
       <c r="Q16">
-        <v>0.09232</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="R16">
-        <v>0.08395836372503415</v>
+        <v>6.8954436920157403E-2</v>
       </c>
       <c r="S16">
-        <v>0.07274456857217394</v>
+        <v>6.0576253297556157E-2</v>
       </c>
       <c r="T16">
-        <v>0.08602049147476651</v>
+        <v>7.1370266344208788E-2</v>
       </c>
       <c r="U16">
-        <v>0.07077356826750791</v>
+        <v>6.0363580176046178E-2</v>
       </c>
       <c r="V16">
-        <v>0.065635656450951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>5.5413041262508983E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.06710000000000001</v>
+        <v>6.8100000000000008E-2</v>
       </c>
       <c r="C17">
-        <v>0.06710000000000001</v>
+        <v>6.8100000000000008E-2</v>
       </c>
       <c r="D17">
-        <v>0.06385</v>
+        <v>6.5350000000000005E-2</v>
       </c>
       <c r="E17">
-        <v>0.0617</v>
+        <v>6.2449999999999999E-2</v>
       </c>
       <c r="F17">
-        <v>0.0619</v>
+        <v>6.2649999999999997E-2</v>
       </c>
       <c r="G17">
-        <v>0.06</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H17">
-        <v>0.0611</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="I17">
-        <v>0.05989999999999999</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="J17">
-        <v>0.07400000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K17">
-        <v>0.06075</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L17">
-        <v>0.065</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="M17">
-        <v>0.075</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="N17">
-        <v>0.07300000000000001</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="O17">
-        <v>0.06275</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="P17">
-        <v>0.07025000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q17">
-        <v>0.07580000000000001</v>
+        <v>7.034E-2</v>
       </c>
       <c r="R17">
-        <v>0.0689544369201574</v>
+        <v>6.3953127985198477E-2</v>
       </c>
       <c r="S17">
-        <v>0.06057625329755616</v>
+        <v>5.7768180541875137E-2</v>
       </c>
       <c r="T17">
-        <v>0.07137026634420879</v>
+        <v>6.7989445160233919E-2</v>
       </c>
       <c r="U17">
-        <v>0.06036358017604618</v>
+        <v>5.7961275231862702E-2</v>
       </c>
       <c r="V17">
-        <v>0.05541304126250898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>5.3053976219022358E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.06810000000000001</v>
+        <v>0.1101</v>
       </c>
       <c r="C18">
-        <v>0.06810000000000001</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="D18">
-        <v>0.06535000000000001</v>
+        <v>0.1051</v>
       </c>
       <c r="E18">
-        <v>0.06245</v>
+        <v>6.9949999999999998E-2</v>
       </c>
       <c r="F18">
-        <v>0.06265</v>
+        <v>7.0150000000000004E-2</v>
       </c>
       <c r="G18">
-        <v>0.057</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H18">
-        <v>0.0581</v>
+        <v>6.6349999999999992E-2</v>
       </c>
       <c r="I18">
-        <v>0.0554</v>
+        <v>6.515E-2</v>
       </c>
       <c r="J18">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
-        <v>0.054</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="L18">
-        <v>0.0575</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="M18">
-        <v>0.0675</v>
+        <v>8.249999999999999E-2</v>
       </c>
       <c r="N18">
-        <v>0.0655</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="O18">
-        <v>0.0575</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="P18">
-        <v>0.065</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q18">
-        <v>0.07034</v>
+        <v>0.1017</v>
       </c>
       <c r="R18">
-        <v>0.06395312798519848</v>
+        <v>9.2422117307272317E-2</v>
       </c>
       <c r="S18">
-        <v>0.05776818054187514</v>
+        <v>7.9608746419394222E-2</v>
       </c>
       <c r="T18">
-        <v>0.06798944516023392</v>
+        <v>9.428472103559396E-2</v>
       </c>
       <c r="U18">
-        <v>0.0579612752318627</v>
+        <v>7.3709718754843279E-2</v>
       </c>
       <c r="V18">
-        <v>0.05305397621902236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>6.8518958170767988E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1101</v>
+        <v>6.9600000000000009E-2</v>
       </c>
       <c r="C19">
-        <v>0.0951</v>
+        <v>6.9600000000000009E-2</v>
       </c>
       <c r="D19">
-        <v>0.1051</v>
+        <v>9.3850000000000003E-2</v>
       </c>
       <c r="E19">
-        <v>0.06995</v>
+        <v>6.6200000000000009E-2</v>
       </c>
       <c r="F19">
-        <v>0.07015</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="G19">
-        <v>0.066</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="H19">
-        <v>0.06634999999999999</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="I19">
-        <v>0.06515</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="J19">
-        <v>0.08</v>
+        <v>7.1000000000000008E-2</v>
       </c>
       <c r="K19">
-        <v>0.06900000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="L19">
-        <v>0.07250000000000001</v>
+        <v>6.0500000000000012E-2</v>
       </c>
       <c r="M19">
-        <v>0.08249999999999999</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="N19">
-        <v>0.0805</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="O19">
-        <v>0.07400000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="P19">
-        <v>0.08599999999999999</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="Q19">
-        <v>0.1017</v>
+        <v>7.356E-2</v>
       </c>
       <c r="R19">
-        <v>0.09242211730727232</v>
+        <v>6.6902617869917844E-2</v>
       </c>
       <c r="S19">
-        <v>0.07960874641939422</v>
+        <v>5.8912210183078517E-2</v>
       </c>
       <c r="T19">
-        <v>0.09428472103559396</v>
+        <v>6.9366816753705152E-2</v>
       </c>
       <c r="U19">
-        <v>0.07370971875484328</v>
+        <v>5.8939992060974493E-2</v>
       </c>
       <c r="V19">
-        <v>0.06851895817076799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>5.4015076792294683E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06960000000000001</v>
+        <v>6.9600000000000009E-2</v>
       </c>
       <c r="C20">
-        <v>0.06960000000000001</v>
+        <v>6.8100000000000008E-2</v>
       </c>
       <c r="D20">
-        <v>0.09385</v>
+        <v>6.3850000000000004E-2</v>
       </c>
       <c r="E20">
-        <v>0.06620000000000001</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="F20">
-        <v>0.0679</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="G20">
-        <v>0.0615</v>
+        <v>0.06</v>
       </c>
       <c r="H20">
-        <v>0.0611</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="I20">
-        <v>0.0584</v>
+        <v>5.9899999999999988E-2</v>
       </c>
       <c r="J20">
-        <v>0.07100000000000001</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="K20">
-        <v>0.0585</v>
+        <v>6.3E-2</v>
       </c>
       <c r="L20">
-        <v>0.06050000000000001</v>
+        <v>6.7250000000000004E-2</v>
       </c>
       <c r="M20">
-        <v>0.07049999999999999</v>
+        <v>7.7249999999999999E-2</v>
       </c>
       <c r="N20">
-        <v>0.06850000000000001</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="O20">
-        <v>0.059</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="P20">
-        <v>0.0665</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q20">
-        <v>0.07356</v>
+        <v>9.2319999999999999E-2</v>
       </c>
       <c r="R20">
-        <v>0.06690261786991784</v>
+        <v>8.3958363725034152E-2</v>
       </c>
       <c r="S20">
-        <v>0.05891221018307852</v>
+        <v>7.6176657495784075E-2</v>
       </c>
       <c r="T20">
-        <v>0.06936681675370515</v>
+        <v>9.0152606255180234E-2</v>
       </c>
       <c r="U20">
-        <v>0.05893999206097449</v>
+        <v>7.3709718754843279E-2</v>
       </c>
       <c r="V20">
-        <v>0.05401507679229468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>7.629513553633499E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.06960000000000001</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="C21">
-        <v>0.06810000000000001</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="D21">
-        <v>0.06385</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="E21">
-        <v>0.0617</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="F21">
-        <v>0.0619</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="G21">
-        <v>0.06</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H21">
-        <v>0.0611</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="I21">
-        <v>0.05989999999999999</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="J21">
-        <v>0.07400000000000001</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K21">
-        <v>0.063</v>
+        <v>5.6249999999999988E-2</v>
       </c>
       <c r="L21">
-        <v>0.06725</v>
+        <v>6.0500000000000012E-2</v>
       </c>
       <c r="M21">
-        <v>0.07725</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="N21">
-        <v>0.0805</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="O21">
-        <v>0.07400000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="P21">
-        <v>0.08599999999999999</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="Q21">
-        <v>0.09232</v>
+        <v>7.2020000000000001E-2</v>
       </c>
       <c r="R21">
-        <v>0.08395836372503415</v>
+        <v>6.5491992272878136E-2</v>
       </c>
       <c r="S21">
-        <v>0.07617665749578408</v>
+        <v>5.7768180541875137E-2</v>
       </c>
       <c r="T21">
-        <v>0.09015260625518023</v>
+        <v>6.7989445160233919E-2</v>
       </c>
       <c r="U21">
-        <v>0.07370971875484328</v>
+        <v>5.7961275231862702E-2</v>
       </c>
       <c r="V21">
-        <v>0.07629513553633499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>5.3053976219022358E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0621</v>
+        <v>6.9600000000000009E-2</v>
       </c>
       <c r="C22">
-        <v>0.0621</v>
+        <v>6.9600000000000009E-2</v>
       </c>
       <c r="D22">
-        <v>0.0586</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="E22">
-        <v>0.0587</v>
+        <v>6.6200000000000009E-2</v>
       </c>
       <c r="F22">
-        <v>0.0589</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="G22">
-        <v>0.048</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="H22">
-        <v>0.0581</v>
+        <v>6.409999999999999E-2</v>
       </c>
       <c r="I22">
-        <v>0.0569</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="J22">
-        <v>0.068</v>
+        <v>0.08</v>
       </c>
       <c r="K22">
-        <v>0.05624999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="L22">
-        <v>0.06050000000000001</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="M22">
-        <v>0.07049999999999999</v>
+        <v>8.249999999999999E-2</v>
       </c>
       <c r="N22">
-        <v>0.06850000000000001</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="O22">
-        <v>0.059</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="P22">
-        <v>0.0665</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="Q22">
-        <v>0.07202</v>
+        <v>8.7559999999999999E-2</v>
       </c>
       <c r="R22">
-        <v>0.06549199227287814</v>
+        <v>7.9598248243275105E-2</v>
       </c>
       <c r="S22">
-        <v>0.05776818054187514</v>
+        <v>6.9208476953908943E-2</v>
       </c>
       <c r="T22">
-        <v>0.06798944516023392</v>
+        <v>8.1763161094946329E-2</v>
       </c>
       <c r="U22">
-        <v>0.0579612752318627</v>
+        <v>6.7748443522980567E-2</v>
       </c>
       <c r="V22">
-        <v>0.05305397621902236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>6.2664981951745621E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.06960000000000001</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="C23">
-        <v>0.06960000000000001</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="D23">
-        <v>0.06759999999999999</v>
+        <v>0.1726</v>
       </c>
       <c r="E23">
-        <v>0.06620000000000001</v>
+        <v>0.1457</v>
       </c>
       <c r="F23">
-        <v>0.0664</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="G23">
-        <v>0.0645</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="H23">
-        <v>0.06409999999999999</v>
+        <v>9.4099999999999989E-2</v>
       </c>
       <c r="I23">
-        <v>0.0629</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="J23">
-        <v>0.08</v>
+        <v>0.12875</v>
       </c>
       <c r="K23">
-        <v>0.06900000000000001</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="L23">
-        <v>0.07250000000000001</v>
+        <v>9.1249999999999998E-2</v>
       </c>
       <c r="M23">
-        <v>0.08249999999999999</v>
+        <v>0.10125000000000001</v>
       </c>
       <c r="N23">
-        <v>0.0805</v>
+        <v>9.4E-2</v>
       </c>
       <c r="O23">
-        <v>0.07400000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="P23">
-        <v>0.0815</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="Q23">
-        <v>0.08756</v>
+        <v>9.708E-2</v>
       </c>
       <c r="R23">
-        <v>0.0795982482432751</v>
+        <v>9.2422117307272317E-2</v>
       </c>
       <c r="S23">
-        <v>0.06920847695390894</v>
+        <v>7.9608746419394222E-2</v>
       </c>
       <c r="T23">
-        <v>0.08176316109494633</v>
+        <v>0.1095610241631841</v>
       </c>
       <c r="U23">
-        <v>0.06774844352298057</v>
+        <v>9.639815433879835E-2</v>
       </c>
       <c r="V23">
-        <v>0.06266498195174562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>0.10049739542692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1001</v>
+        <v>6.4100000000000004E-2</v>
       </c>
       <c r="C24">
-        <v>0.1001</v>
+        <v>6.4100000000000004E-2</v>
       </c>
       <c r="D24">
-        <v>0.1726</v>
+        <v>6.3850000000000004E-2</v>
       </c>
       <c r="E24">
-        <v>0.1457</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="F24">
-        <v>0.1309</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="G24">
-        <v>0.102</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H24">
-        <v>0.09409999999999999</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="I24">
-        <v>0.0929</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="J24">
-        <v>0.12875</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K24">
-        <v>0.0975</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L24">
-        <v>0.09125</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="M24">
-        <v>0.10125</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="N24">
-        <v>0.094</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="O24">
-        <v>0.083</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="P24">
-        <v>0.0905</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q24">
-        <v>0.09708</v>
+        <v>7.034E-2</v>
       </c>
       <c r="R24">
-        <v>0.09242211730727232</v>
+        <v>6.3953127985198477E-2</v>
       </c>
       <c r="S24">
-        <v>0.07960874641939422</v>
+        <v>5.6520148206016897E-2</v>
       </c>
       <c r="T24">
-        <v>0.1095610241631841</v>
+        <v>6.6486857967356205E-2</v>
       </c>
       <c r="U24">
-        <v>0.09639815433879835</v>
+        <v>5.6893584145558937E-2</v>
       </c>
       <c r="V24">
-        <v>0.10049739542692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.0641</v>
-      </c>
-      <c r="C25">
-        <v>0.0641</v>
-      </c>
-      <c r="D25">
-        <v>0.06385</v>
-      </c>
-      <c r="E25">
-        <v>0.0617</v>
-      </c>
-      <c r="F25">
-        <v>0.0604</v>
-      </c>
-      <c r="G25">
-        <v>0.057</v>
-      </c>
-      <c r="H25">
-        <v>0.0581</v>
-      </c>
-      <c r="I25">
-        <v>0.0554</v>
-      </c>
-      <c r="J25">
-        <v>0.065</v>
-      </c>
-      <c r="K25">
-        <v>0.054</v>
-      </c>
-      <c r="L25">
-        <v>0.0575</v>
-      </c>
-      <c r="M25">
-        <v>0.0675</v>
-      </c>
-      <c r="N25">
-        <v>0.0655</v>
-      </c>
-      <c r="O25">
-        <v>0.0575</v>
-      </c>
-      <c r="P25">
-        <v>0.065</v>
-      </c>
-      <c r="Q25">
-        <v>0.07034</v>
-      </c>
-      <c r="R25">
-        <v>0.06395312798519848</v>
-      </c>
-      <c r="S25">
-        <v>0.0565201482060169</v>
-      </c>
-      <c r="T25">
-        <v>0.06648685796735621</v>
-      </c>
-      <c r="U25">
-        <v>0.05689358414555894</v>
-      </c>
-      <c r="V25">
-        <v>0.05200550286636164</v>
+        <v>5.2005502866361637E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/country_data/total_equity_risk_premium.xlsx
+++ b/Data/country_data/total_equity_risk_premium.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canne\Documents\MFE Winter\230O\prem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED4EB5-DFAA-4054-89CE-7DB71D2DF4F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="1176" windowWidth="20508" windowHeight="11184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -94,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +152,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -212,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,27 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,24 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,16 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>2000</v>
       </c>
@@ -563,7 +511,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,10 +519,10 @@
         <v>0.1101</v>
       </c>
       <c r="C2">
-        <v>0.14510000000000001</v>
+        <v>0.1451</v>
       </c>
       <c r="D2">
-        <v>0.18010000000000001</v>
+        <v>0.1801</v>
       </c>
       <c r="E2">
         <v>0.1457</v>
@@ -583,7 +531,7 @@
         <v>0.1459</v>
       </c>
       <c r="G2">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="H2">
         <v>0.1166</v>
@@ -595,279 +543,279 @@
         <v>0.185</v>
       </c>
       <c r="K2">
-        <v>0.14249999999999999</v>
+        <v>0.1425</v>
       </c>
       <c r="L2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M2">
         <v>0.15</v>
       </c>
       <c r="N2">
-        <v>0.14799999999999999</v>
+        <v>0.148</v>
       </c>
       <c r="O2">
-        <v>0.14749999999999999</v>
+        <v>0.1475</v>
       </c>
       <c r="P2">
         <v>0.17</v>
       </c>
       <c r="Q2">
-        <v>0.16456000000000001</v>
+        <v>0.16456</v>
       </c>
       <c r="R2">
         <v>0.14936009595142</v>
       </c>
       <c r="S2">
-        <v>0.11424164373946021</v>
+        <v>0.1142416437394602</v>
       </c>
       <c r="T2">
-        <v>0.13598151563795061</v>
+        <v>0.1359815156379506</v>
       </c>
       <c r="U2">
-        <v>0.14079630867759671</v>
+        <v>0.1407963086775967</v>
       </c>
       <c r="V2">
-        <v>0.16340579658656321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.1634057965865632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.10009999999999999</v>
+        <v>0.1001</v>
       </c>
       <c r="C3">
-        <v>0.10009999999999999</v>
+        <v>0.1001</v>
       </c>
       <c r="D3">
-        <v>0.15759999999999999</v>
+        <v>0.1576</v>
       </c>
       <c r="E3">
-        <v>0.13070000000000001</v>
+        <v>0.1307</v>
       </c>
       <c r="F3">
         <v>0.1084</v>
       </c>
       <c r="G3">
-        <v>0.10199999999999999</v>
+        <v>0.102</v>
       </c>
       <c r="H3">
-        <v>8.660000000000001E-2</v>
+        <v>0.08660000000000001</v>
       </c>
       <c r="I3">
-        <v>7.7899999999999997E-2</v>
+        <v>0.0779</v>
       </c>
       <c r="J3">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="K3">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="L3">
         <v>0.08</v>
       </c>
       <c r="M3">
-        <v>8.6249999999999993E-2</v>
+        <v>0.08624999999999999</v>
       </c>
       <c r="N3">
-        <v>8.4250000000000005E-2</v>
+        <v>0.08425000000000001</v>
       </c>
       <c r="O3">
-        <v>7.85E-2</v>
+        <v>0.0785</v>
       </c>
       <c r="P3">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q3">
         <v>0.10968</v>
       </c>
       <c r="R3">
-        <v>9.960348398311078E-2</v>
+        <v>0.09960348398311078</v>
       </c>
       <c r="S3">
-        <v>8.5432897320065981E-2</v>
+        <v>0.08543289732006598</v>
       </c>
       <c r="T3">
         <v>0.1012967946023566</v>
       </c>
       <c r="U3">
-        <v>8.1628427644929544E-2</v>
+        <v>0.08162842764492954</v>
       </c>
       <c r="V3">
-        <v>7.629513553633499E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.07629513553633499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.7100000000000007E-2</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="C4">
-        <v>6.7100000000000007E-2</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="D4">
-        <v>6.0100000000000001E-2</v>
+        <v>0.0601</v>
       </c>
       <c r="E4">
-        <v>6.0199999999999997E-2</v>
+        <v>0.0602</v>
       </c>
       <c r="F4">
-        <v>6.0400000000000002E-2</v>
+        <v>0.0604</v>
       </c>
       <c r="G4">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="H4">
-        <v>5.96E-2</v>
+        <v>0.0596</v>
       </c>
       <c r="I4">
-        <v>5.8400000000000001E-2</v>
+        <v>0.0584</v>
       </c>
       <c r="J4">
-        <v>7.1000000000000008E-2</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="K4">
-        <v>5.8500000000000003E-2</v>
+        <v>0.0585</v>
       </c>
       <c r="L4">
-        <v>6.0500000000000012E-2</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="M4">
-        <v>7.0499999999999993E-2</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="N4">
-        <v>6.8500000000000005E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O4">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P4">
-        <v>6.6500000000000004E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q4">
-        <v>7.2020000000000001E-2</v>
+        <v>0.07202</v>
       </c>
       <c r="R4">
-        <v>6.5491992272878136E-2</v>
+        <v>0.06549199227287814</v>
       </c>
       <c r="S4">
-        <v>5.7768180541875137E-2</v>
+        <v>0.05776818054187514</v>
       </c>
       <c r="T4">
-        <v>6.9366816753705152E-2</v>
+        <v>0.06936681675370515</v>
       </c>
       <c r="U4">
-        <v>5.8939992060974493E-2</v>
+        <v>0.05893999206097449</v>
       </c>
       <c r="V4">
-        <v>5.4015076792294683E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05401507679229468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.4600000000000005E-2</v>
+        <v>0.0646</v>
       </c>
       <c r="C5">
-        <v>6.4600000000000005E-2</v>
+        <v>0.0646</v>
       </c>
       <c r="D5">
-        <v>6.5350000000000005E-2</v>
+        <v>0.06535000000000001</v>
       </c>
       <c r="E5">
-        <v>6.1699999999999998E-2</v>
+        <v>0.0617</v>
       </c>
       <c r="F5">
-        <v>6.1899999999999997E-2</v>
+        <v>0.0619</v>
       </c>
       <c r="G5">
         <v>0.06</v>
       </c>
       <c r="H5">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="I5">
-        <v>5.8400000000000001E-2</v>
+        <v>0.0584</v>
       </c>
       <c r="J5">
-        <v>7.1000000000000008E-2</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="K5">
-        <v>5.8500000000000003E-2</v>
+        <v>0.0585</v>
       </c>
       <c r="L5">
-        <v>6.0500000000000012E-2</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="M5">
-        <v>7.0499999999999993E-2</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="N5">
-        <v>6.8500000000000005E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O5">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P5">
-        <v>6.6500000000000004E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q5">
-        <v>7.2020000000000001E-2</v>
+        <v>0.07202</v>
       </c>
       <c r="R5">
-        <v>6.5491992272878136E-2</v>
+        <v>0.06549199227287814</v>
       </c>
       <c r="S5">
-        <v>5.8912210183078517E-2</v>
+        <v>0.05891221018307852</v>
       </c>
       <c r="T5">
-        <v>6.9366816753705152E-2</v>
+        <v>0.06936681675370515</v>
       </c>
       <c r="U5">
-        <v>5.8939992060974493E-2</v>
+        <v>0.05893999206097449</v>
       </c>
       <c r="V5">
-        <v>5.4015076792294683E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05401507679229468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.5100000000000009E-2</v>
+        <v>0.08510000000000001</v>
       </c>
       <c r="C6">
-        <v>8.5100000000000009E-2</v>
+        <v>0.08510000000000001</v>
       </c>
       <c r="D6">
-        <v>7.1349999999999997E-2</v>
+        <v>0.07135</v>
       </c>
       <c r="E6">
-        <v>6.7699999999999996E-2</v>
+        <v>0.0677</v>
       </c>
       <c r="F6">
-        <v>6.7900000000000002E-2</v>
+        <v>0.0679</v>
       </c>
       <c r="G6">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="H6">
-        <v>6.9349999999999995E-2</v>
+        <v>0.06934999999999999</v>
       </c>
       <c r="I6">
-        <v>6.8150000000000002E-2</v>
+        <v>0.06815</v>
       </c>
       <c r="J6">
-        <v>8.8999999999999996E-2</v>
+        <v>0.089</v>
       </c>
       <c r="K6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="L6">
         <v>0.08</v>
@@ -876,90 +824,90 @@
         <v>0.09</v>
       </c>
       <c r="N6">
-        <v>8.7999999999999995E-2</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="O6">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="P6">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q6">
-        <v>9.2319999999999999E-2</v>
+        <v>0.09232</v>
       </c>
       <c r="R6">
-        <v>8.3958363725034152E-2</v>
+        <v>0.08395836372503415</v>
       </c>
       <c r="S6">
-        <v>7.2744568572173943E-2</v>
+        <v>0.07274456857217394</v>
       </c>
       <c r="T6">
-        <v>8.6020491474766508E-2</v>
+        <v>0.08602049147476651</v>
       </c>
       <c r="U6">
-        <v>7.0773568267507914E-2</v>
+        <v>0.07077356826750791</v>
       </c>
       <c r="V6">
-        <v>6.5635656450950999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.065635656450951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.0100000000000005E-2</v>
+        <v>0.0801</v>
       </c>
       <c r="C7">
-        <v>8.0100000000000005E-2</v>
+        <v>0.0801</v>
       </c>
       <c r="D7">
-        <v>6.7599999999999993E-2</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="E7">
-        <v>6.6200000000000009E-2</v>
+        <v>0.06620000000000001</v>
       </c>
       <c r="F7">
-        <v>6.6400000000000001E-2</v>
+        <v>0.0664</v>
       </c>
       <c r="G7">
-        <v>6.8250000000000005E-2</v>
+        <v>0.06825000000000001</v>
       </c>
       <c r="H7">
-        <v>6.9349999999999995E-2</v>
+        <v>0.06934999999999999</v>
       </c>
       <c r="I7">
-        <v>6.8150000000000002E-2</v>
+        <v>0.06815</v>
       </c>
       <c r="J7">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="K7">
-        <v>8.2500000000000004E-2</v>
+        <v>0.0825</v>
       </c>
       <c r="L7">
-        <v>8.6000000000000007E-2</v>
+        <v>0.08600000000000001</v>
       </c>
       <c r="M7">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="N7">
-        <v>0.13300000000000001</v>
+        <v>0.133</v>
       </c>
       <c r="O7">
-        <v>0.16250000000000001</v>
+        <v>0.1625</v>
       </c>
       <c r="P7">
         <v>0.17</v>
       </c>
       <c r="Q7">
-        <v>0.16456000000000001</v>
+        <v>0.16456</v>
       </c>
       <c r="R7">
         <v>0.14936009595142</v>
       </c>
       <c r="S7">
-        <v>0.12578594284614891</v>
+        <v>0.1257859428461489</v>
       </c>
       <c r="T7">
         <v>0.1498804471720695</v>
@@ -971,48 +919,48 @@
         <v>0.10049739542692</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.4600000000000005E-2</v>
+        <v>0.0646</v>
       </c>
       <c r="C8">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="D8">
-        <v>6.0100000000000001E-2</v>
+        <v>0.0601</v>
       </c>
       <c r="E8">
-        <v>6.0199999999999997E-2</v>
+        <v>0.0602</v>
       </c>
       <c r="F8">
-        <v>6.0400000000000002E-2</v>
+        <v>0.0604</v>
       </c>
       <c r="G8">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="H8">
-        <v>5.96E-2</v>
+        <v>0.0596</v>
       </c>
       <c r="I8">
-        <v>5.8400000000000001E-2</v>
+        <v>0.0584</v>
       </c>
       <c r="J8">
-        <v>7.1000000000000008E-2</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="K8">
-        <v>6.0749999999999998E-2</v>
+        <v>0.06075</v>
       </c>
       <c r="L8">
-        <v>8.6000000000000007E-2</v>
+        <v>0.08600000000000001</v>
       </c>
       <c r="M8">
-        <v>0.16500000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="N8">
-        <v>0.20799999999999999</v>
+        <v>0.208</v>
       </c>
       <c r="O8">
         <v>0.2</v>
@@ -1027,45 +975,45 @@
         <v>0.1989884692290893</v>
       </c>
       <c r="S8">
-        <v>0.15459468926554309</v>
+        <v>0.1545946892655431</v>
       </c>
       <c r="T8">
         <v>0.1498804471720695</v>
       </c>
       <c r="U8">
-        <v>9.639815433879835E-2</v>
+        <v>0.09639815433879835</v>
       </c>
       <c r="V8">
-        <v>8.2061738975968967E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.08206173897596897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.5100000000000009E-2</v>
+        <v>0.08510000000000001</v>
       </c>
       <c r="C9">
-        <v>8.5100000000000009E-2</v>
+        <v>0.08510000000000001</v>
       </c>
       <c r="D9">
         <v>0.1051</v>
       </c>
       <c r="E9">
-        <v>6.9949999999999998E-2</v>
+        <v>0.06995</v>
       </c>
       <c r="F9">
-        <v>9.3399999999999997E-2</v>
+        <v>0.0934</v>
       </c>
       <c r="G9">
-        <v>8.8499999999999995E-2</v>
+        <v>0.0885</v>
       </c>
       <c r="H9">
-        <v>8.660000000000001E-2</v>
+        <v>0.08660000000000001</v>
       </c>
       <c r="I9">
-        <v>8.5400000000000004E-2</v>
+        <v>0.0854</v>
       </c>
       <c r="J9">
         <v>0.11</v>
@@ -1074,261 +1022,261 @@
         <v>0.09</v>
       </c>
       <c r="L9">
-        <v>8.6000000000000007E-2</v>
+        <v>0.08600000000000001</v>
       </c>
       <c r="M9">
         <v>0.09</v>
       </c>
       <c r="N9">
-        <v>8.7999999999999995E-2</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="O9">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="P9">
-        <v>9.0499999999999997E-2</v>
+        <v>0.0905</v>
       </c>
       <c r="Q9">
-        <v>9.708E-2</v>
+        <v>0.09708</v>
       </c>
       <c r="R9">
-        <v>8.8190240516153234E-2</v>
+        <v>0.08819024051615323</v>
       </c>
       <c r="S9">
-        <v>7.2744568572173943E-2</v>
+        <v>0.07274456857217394</v>
       </c>
       <c r="T9">
-        <v>8.6020491474766508E-2</v>
+        <v>0.08602049147476651</v>
       </c>
       <c r="U9">
-        <v>7.0773568267507914E-2</v>
+        <v>0.07077356826750791</v>
       </c>
       <c r="V9">
-        <v>6.8518958170767988E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.06851895817076799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="C10">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="D10">
-        <v>6.5350000000000005E-2</v>
+        <v>0.06535000000000001</v>
       </c>
       <c r="E10">
-        <v>6.2449999999999999E-2</v>
+        <v>0.06245</v>
       </c>
       <c r="F10">
-        <v>6.2649999999999997E-2</v>
+        <v>0.06265</v>
       </c>
       <c r="G10">
-        <v>6.1499999999999999E-2</v>
+        <v>0.0615</v>
       </c>
       <c r="H10">
-        <v>6.1850000000000002E-2</v>
+        <v>0.06185</v>
       </c>
       <c r="I10">
-        <v>5.9899999999999988E-2</v>
+        <v>0.05989999999999999</v>
       </c>
       <c r="J10">
-        <v>7.400000000000001E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="K10">
-        <v>6.0749999999999998E-2</v>
+        <v>0.06075</v>
       </c>
       <c r="L10">
-        <v>6.275E-2</v>
+        <v>0.06275</v>
       </c>
       <c r="M10">
-        <v>7.2749999999999995E-2</v>
+        <v>0.07275</v>
       </c>
       <c r="N10">
-        <v>6.8500000000000005E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O10">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P10">
-        <v>6.6500000000000004E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q10">
-        <v>7.034E-2</v>
+        <v>0.07034</v>
       </c>
       <c r="R10">
-        <v>6.3953127985198477E-2</v>
+        <v>0.06395312798519848</v>
       </c>
       <c r="S10">
-        <v>5.6520148206016897E-2</v>
+        <v>0.0565201482060169</v>
       </c>
       <c r="T10">
-        <v>6.6486857967356205E-2</v>
+        <v>0.06648685796735621</v>
       </c>
       <c r="U10">
-        <v>5.6893584145558937E-2</v>
+        <v>0.05689358414555894</v>
       </c>
       <c r="V10">
-        <v>5.2005502866361637E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05200550286636164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="C11">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="D11">
-        <v>6.5350000000000005E-2</v>
+        <v>0.06535000000000001</v>
       </c>
       <c r="E11">
-        <v>6.2449999999999999E-2</v>
+        <v>0.06245</v>
       </c>
       <c r="F11">
-        <v>6.2649999999999997E-2</v>
+        <v>0.06265</v>
       </c>
       <c r="G11">
-        <v>6.1499999999999999E-2</v>
+        <v>0.0615</v>
       </c>
       <c r="H11">
-        <v>6.1850000000000002E-2</v>
+        <v>0.06185</v>
       </c>
       <c r="I11">
-        <v>6.0650000000000003E-2</v>
+        <v>0.06065</v>
       </c>
       <c r="J11">
-        <v>7.6250000000000012E-2</v>
+        <v>0.07625000000000001</v>
       </c>
       <c r="K11">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
       <c r="L11">
-        <v>6.7250000000000004E-2</v>
+        <v>0.06725</v>
       </c>
       <c r="M11">
-        <v>7.7249999999999999E-2</v>
+        <v>0.07725</v>
       </c>
       <c r="N11">
-        <v>7.5250000000000011E-2</v>
+        <v>0.07525000000000001</v>
       </c>
       <c r="O11">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="P11">
-        <v>7.5500000000000012E-2</v>
+        <v>0.07550000000000001</v>
       </c>
       <c r="Q11">
-        <v>8.14E-2</v>
+        <v>0.0814</v>
       </c>
       <c r="R11">
-        <v>7.3955745855116314E-2</v>
+        <v>0.07395574585511631</v>
       </c>
       <c r="S11">
-        <v>6.4632358389095423E-2</v>
+        <v>0.06463235838909542</v>
       </c>
       <c r="T11">
-        <v>7.6253674721061357E-2</v>
+        <v>0.07625367472106136</v>
       </c>
       <c r="U11">
-        <v>6.3833576206533432E-2</v>
+        <v>0.06383357620653343</v>
       </c>
       <c r="V11">
-        <v>5.8820579658656322E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05882057965865632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C12">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="D12">
-        <v>6.7599999999999993E-2</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="E12">
-        <v>6.6200000000000009E-2</v>
+        <v>0.06620000000000001</v>
       </c>
       <c r="F12">
-        <v>6.6400000000000001E-2</v>
+        <v>0.0664</v>
       </c>
       <c r="G12">
-        <v>6.4500000000000002E-2</v>
+        <v>0.0645</v>
       </c>
       <c r="H12">
-        <v>6.409999999999999E-2</v>
+        <v>0.06409999999999999</v>
       </c>
       <c r="I12">
-        <v>6.2899999999999998E-2</v>
+        <v>0.0629</v>
       </c>
       <c r="J12">
         <v>0.08</v>
       </c>
       <c r="K12">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="L12">
-        <v>7.2500000000000009E-2</v>
+        <v>0.07250000000000001</v>
       </c>
       <c r="M12">
-        <v>8.249999999999999E-2</v>
+        <v>0.08249999999999999</v>
       </c>
       <c r="N12">
-        <v>8.0500000000000002E-2</v>
+        <v>0.0805</v>
       </c>
       <c r="O12">
-        <v>7.400000000000001E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="P12">
-        <v>7.5500000000000012E-2</v>
+        <v>0.07550000000000001</v>
       </c>
       <c r="Q12">
-        <v>8.14E-2</v>
+        <v>0.0814</v>
       </c>
       <c r="R12">
-        <v>7.3955745855116314E-2</v>
+        <v>0.07395574585511631</v>
       </c>
       <c r="S12">
-        <v>6.4632358389095423E-2</v>
+        <v>0.06463235838909542</v>
       </c>
       <c r="T12">
-        <v>7.6253674721061357E-2</v>
+        <v>0.07625367472106136</v>
       </c>
       <c r="U12">
-        <v>6.3833576206533432E-2</v>
+        <v>0.06383357620653343</v>
       </c>
       <c r="V12">
-        <v>6.2664981951745621E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.06266498195174562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.13009999999999999</v>
+        <v>0.1301</v>
       </c>
       <c r="C13">
-        <v>0.13009999999999999</v>
+        <v>0.1301</v>
       </c>
       <c r="D13">
         <v>0.1726</v>
       </c>
       <c r="E13">
-        <v>0.13070000000000001</v>
+        <v>0.1307</v>
       </c>
       <c r="F13">
-        <v>0.13089999999999999</v>
+        <v>0.1309</v>
       </c>
       <c r="G13">
         <v>0.123</v>
@@ -1343,31 +1291,31 @@
         <v>0.185</v>
       </c>
       <c r="K13">
-        <v>0.14249999999999999</v>
+        <v>0.1425</v>
       </c>
       <c r="L13">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M13">
         <v>0.15</v>
       </c>
       <c r="N13">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="O13">
-        <v>0.16250000000000001</v>
+        <v>0.1625</v>
       </c>
       <c r="P13">
         <v>0.17</v>
       </c>
       <c r="Q13">
-        <v>0.16456000000000001</v>
+        <v>0.16456</v>
       </c>
       <c r="R13">
         <v>0.14936009595142</v>
       </c>
       <c r="S13">
-        <v>0.12578594284614891</v>
+        <v>0.1257859428461489</v>
       </c>
       <c r="T13">
         <v>0.1498804471720695</v>
@@ -1379,39 +1327,39 @@
         <v>0.1101957739390316</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.5100000000000004E-2</v>
+        <v>0.0951</v>
       </c>
       <c r="C14">
-        <v>9.5100000000000004E-2</v>
+        <v>0.0951</v>
       </c>
       <c r="D14">
-        <v>7.51E-2</v>
+        <v>0.0751</v>
       </c>
       <c r="E14">
-        <v>6.9949999999999998E-2</v>
+        <v>0.06995</v>
       </c>
       <c r="F14">
-        <v>7.0150000000000004E-2</v>
+        <v>0.07015</v>
       </c>
       <c r="G14">
-        <v>6.8250000000000005E-2</v>
+        <v>0.06825000000000001</v>
       </c>
       <c r="H14">
-        <v>6.9349999999999995E-2</v>
+        <v>0.06934999999999999</v>
       </c>
       <c r="I14">
-        <v>6.8150000000000002E-2</v>
+        <v>0.06815</v>
       </c>
       <c r="J14">
-        <v>8.8999999999999996E-2</v>
+        <v>0.089</v>
       </c>
       <c r="K14">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="L14">
         <v>0.08</v>
@@ -1420,51 +1368,51 @@
         <v>0.09</v>
       </c>
       <c r="N14">
-        <v>8.4250000000000005E-2</v>
+        <v>0.08425000000000001</v>
       </c>
       <c r="O14">
-        <v>7.85E-2</v>
+        <v>0.0785</v>
       </c>
       <c r="P14">
-        <v>7.5500000000000012E-2</v>
+        <v>0.07550000000000001</v>
       </c>
       <c r="Q14">
-        <v>8.14E-2</v>
+        <v>0.0814</v>
       </c>
       <c r="R14">
-        <v>7.3955745855116314E-2</v>
+        <v>0.07395574585511631</v>
       </c>
       <c r="S14">
-        <v>6.4632358389095423E-2</v>
+        <v>0.06463235838909542</v>
       </c>
       <c r="T14">
-        <v>7.6253674721061357E-2</v>
+        <v>0.07625367472106136</v>
       </c>
       <c r="U14">
-        <v>6.3833576206533432E-2</v>
+        <v>0.06383357620653343</v>
       </c>
       <c r="V14">
-        <v>5.8820579658656322E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05882057965865632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.0100000000000005E-2</v>
+        <v>0.0801</v>
       </c>
       <c r="C15">
-        <v>8.0100000000000005E-2</v>
+        <v>0.0801</v>
       </c>
       <c r="D15">
-        <v>7.51E-2</v>
+        <v>0.0751</v>
       </c>
       <c r="E15">
-        <v>6.9949999999999998E-2</v>
+        <v>0.06995</v>
       </c>
       <c r="F15">
-        <v>9.3399999999999997E-2</v>
+        <v>0.0934</v>
       </c>
       <c r="G15">
         <v>0.108</v>
@@ -1476,182 +1424,182 @@
         <v>0.1004</v>
       </c>
       <c r="J15">
-        <v>0.14749999999999999</v>
+        <v>0.1475</v>
       </c>
       <c r="K15">
-        <v>9.7500000000000003E-2</v>
+        <v>0.0975</v>
       </c>
       <c r="L15">
-        <v>9.8750000000000004E-2</v>
+        <v>0.09875</v>
       </c>
       <c r="M15">
-        <v>0.10125000000000001</v>
+        <v>0.10125</v>
       </c>
       <c r="N15">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="O15">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="P15">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q15">
-        <v>9.2319999999999999E-2</v>
+        <v>0.09232</v>
       </c>
       <c r="R15">
-        <v>8.3958363725034152E-2</v>
+        <v>0.08395836372503415</v>
       </c>
       <c r="S15">
-        <v>7.2744568572173943E-2</v>
+        <v>0.07274456857217394</v>
       </c>
       <c r="T15">
-        <v>8.6020491474766508E-2</v>
+        <v>0.08602049147476651</v>
       </c>
       <c r="U15">
-        <v>7.0773568267507914E-2</v>
+        <v>0.07077356826750791</v>
       </c>
       <c r="V15">
-        <v>6.5635656450950999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.065635656450951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.7100000000000007E-2</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="C16">
-        <v>6.7100000000000007E-2</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="D16">
-        <v>6.3850000000000004E-2</v>
+        <v>0.06385</v>
       </c>
       <c r="E16">
-        <v>6.1699999999999998E-2</v>
+        <v>0.0617</v>
       </c>
       <c r="F16">
-        <v>6.1899999999999997E-2</v>
+        <v>0.0619</v>
       </c>
       <c r="G16">
         <v>0.06</v>
       </c>
       <c r="H16">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="I16">
-        <v>5.9899999999999988E-2</v>
+        <v>0.05989999999999999</v>
       </c>
       <c r="J16">
-        <v>7.400000000000001E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="K16">
-        <v>6.0749999999999998E-2</v>
+        <v>0.06075</v>
       </c>
       <c r="L16">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="M16">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="N16">
-        <v>7.3000000000000009E-2</v>
+        <v>0.07300000000000001</v>
       </c>
       <c r="O16">
-        <v>6.275E-2</v>
+        <v>0.06275</v>
       </c>
       <c r="P16">
-        <v>7.0250000000000007E-2</v>
+        <v>0.07025000000000001</v>
       </c>
       <c r="Q16">
-        <v>7.5800000000000006E-2</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="R16">
-        <v>6.8954436920157403E-2</v>
+        <v>0.0689544369201574</v>
       </c>
       <c r="S16">
-        <v>6.0576253297556157E-2</v>
+        <v>0.06057625329755616</v>
       </c>
       <c r="T16">
-        <v>7.1370266344208788E-2</v>
+        <v>0.07137026634420879</v>
       </c>
       <c r="U16">
-        <v>6.0363580176046178E-2</v>
+        <v>0.06036358017604618</v>
       </c>
       <c r="V16">
-        <v>5.5413041262508983E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05541304126250898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="C17">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="D17">
-        <v>6.5350000000000005E-2</v>
+        <v>0.06535000000000001</v>
       </c>
       <c r="E17">
-        <v>6.2449999999999999E-2</v>
+        <v>0.06245</v>
       </c>
       <c r="F17">
-        <v>6.2649999999999997E-2</v>
+        <v>0.06265</v>
       </c>
       <c r="G17">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="H17">
-        <v>5.8099999999999999E-2</v>
+        <v>0.0581</v>
       </c>
       <c r="I17">
-        <v>5.5399999999999998E-2</v>
+        <v>0.0554</v>
       </c>
       <c r="J17">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="K17">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="L17">
-        <v>5.7500000000000002E-2</v>
+        <v>0.0575</v>
       </c>
       <c r="M17">
-        <v>6.7500000000000004E-2</v>
+        <v>0.0675</v>
       </c>
       <c r="N17">
-        <v>6.5500000000000003E-2</v>
+        <v>0.0655</v>
       </c>
       <c r="O17">
-        <v>5.7500000000000002E-2</v>
+        <v>0.0575</v>
       </c>
       <c r="P17">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="Q17">
-        <v>7.034E-2</v>
+        <v>0.07034</v>
       </c>
       <c r="R17">
-        <v>6.3953127985198477E-2</v>
+        <v>0.06395312798519848</v>
       </c>
       <c r="S17">
-        <v>5.7768180541875137E-2</v>
+        <v>0.05776818054187514</v>
       </c>
       <c r="T17">
-        <v>6.7989445160233919E-2</v>
+        <v>0.06798944516023392</v>
       </c>
       <c r="U17">
-        <v>5.7961275231862702E-2</v>
+        <v>0.0579612752318627</v>
       </c>
       <c r="V17">
-        <v>5.3053976219022358E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05305397621902236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1659,347 +1607,347 @@
         <v>0.1101</v>
       </c>
       <c r="C18">
-        <v>9.5100000000000004E-2</v>
+        <v>0.0951</v>
       </c>
       <c r="D18">
         <v>0.1051</v>
       </c>
       <c r="E18">
-        <v>6.9949999999999998E-2</v>
+        <v>0.06995</v>
       </c>
       <c r="F18">
-        <v>7.0150000000000004E-2</v>
+        <v>0.07015</v>
       </c>
       <c r="G18">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="H18">
-        <v>6.6349999999999992E-2</v>
+        <v>0.06634999999999999</v>
       </c>
       <c r="I18">
-        <v>6.515E-2</v>
+        <v>0.06515</v>
       </c>
       <c r="J18">
         <v>0.08</v>
       </c>
       <c r="K18">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="L18">
-        <v>7.2500000000000009E-2</v>
+        <v>0.07250000000000001</v>
       </c>
       <c r="M18">
-        <v>8.249999999999999E-2</v>
+        <v>0.08249999999999999</v>
       </c>
       <c r="N18">
-        <v>8.0500000000000002E-2</v>
+        <v>0.0805</v>
       </c>
       <c r="O18">
-        <v>7.400000000000001E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="P18">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q18">
         <v>0.1017</v>
       </c>
       <c r="R18">
-        <v>9.2422117307272317E-2</v>
+        <v>0.09242211730727232</v>
       </c>
       <c r="S18">
-        <v>7.9608746419394222E-2</v>
+        <v>0.07960874641939422</v>
       </c>
       <c r="T18">
-        <v>9.428472103559396E-2</v>
+        <v>0.09428472103559396</v>
       </c>
       <c r="U18">
-        <v>7.3709718754843279E-2</v>
+        <v>0.07370971875484328</v>
       </c>
       <c r="V18">
-        <v>6.8518958170767988E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.06851895817076799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C19">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="D19">
-        <v>9.3850000000000003E-2</v>
+        <v>0.09385</v>
       </c>
       <c r="E19">
-        <v>6.6200000000000009E-2</v>
+        <v>0.06620000000000001</v>
       </c>
       <c r="F19">
-        <v>6.7900000000000002E-2</v>
+        <v>0.0679</v>
       </c>
       <c r="G19">
-        <v>6.1499999999999999E-2</v>
+        <v>0.0615</v>
       </c>
       <c r="H19">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="I19">
-        <v>5.8400000000000001E-2</v>
+        <v>0.0584</v>
       </c>
       <c r="J19">
-        <v>7.1000000000000008E-2</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="K19">
-        <v>5.8500000000000003E-2</v>
+        <v>0.0585</v>
       </c>
       <c r="L19">
-        <v>6.0500000000000012E-2</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="M19">
-        <v>7.0499999999999993E-2</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="N19">
-        <v>6.8500000000000005E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O19">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P19">
-        <v>6.6500000000000004E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q19">
-        <v>7.356E-2</v>
+        <v>0.07356</v>
       </c>
       <c r="R19">
-        <v>6.6902617869917844E-2</v>
+        <v>0.06690261786991784</v>
       </c>
       <c r="S19">
-        <v>5.8912210183078517E-2</v>
+        <v>0.05891221018307852</v>
       </c>
       <c r="T19">
-        <v>6.9366816753705152E-2</v>
+        <v>0.06936681675370515</v>
       </c>
       <c r="U19">
-        <v>5.8939992060974493E-2</v>
+        <v>0.05893999206097449</v>
       </c>
       <c r="V19">
-        <v>5.4015076792294683E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05401507679229468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C20">
-        <v>6.8100000000000008E-2</v>
+        <v>0.06810000000000001</v>
       </c>
       <c r="D20">
-        <v>6.3850000000000004E-2</v>
+        <v>0.06385</v>
       </c>
       <c r="E20">
-        <v>6.1699999999999998E-2</v>
+        <v>0.0617</v>
       </c>
       <c r="F20">
-        <v>6.1899999999999997E-2</v>
+        <v>0.0619</v>
       </c>
       <c r="G20">
         <v>0.06</v>
       </c>
       <c r="H20">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
       <c r="I20">
-        <v>5.9899999999999988E-2</v>
+        <v>0.05989999999999999</v>
       </c>
       <c r="J20">
-        <v>7.400000000000001E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="K20">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
       <c r="L20">
-        <v>6.7250000000000004E-2</v>
+        <v>0.06725</v>
       </c>
       <c r="M20">
-        <v>7.7249999999999999E-2</v>
+        <v>0.07725</v>
       </c>
       <c r="N20">
-        <v>8.0500000000000002E-2</v>
+        <v>0.0805</v>
       </c>
       <c r="O20">
-        <v>7.400000000000001E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="P20">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q20">
-        <v>9.2319999999999999E-2</v>
+        <v>0.09232</v>
       </c>
       <c r="R20">
-        <v>8.3958363725034152E-2</v>
+        <v>0.08395836372503415</v>
       </c>
       <c r="S20">
-        <v>7.6176657495784075E-2</v>
+        <v>0.07617665749578408</v>
       </c>
       <c r="T20">
-        <v>9.0152606255180234E-2</v>
+        <v>0.09015260625518023</v>
       </c>
       <c r="U20">
-        <v>7.3709718754843279E-2</v>
+        <v>0.07370971875484328</v>
       </c>
       <c r="V20">
-        <v>7.629513553633499E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.07629513553633499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.2100000000000002E-2</v>
+        <v>0.0621</v>
       </c>
       <c r="C21">
-        <v>6.2100000000000002E-2</v>
+        <v>0.0621</v>
       </c>
       <c r="D21">
-        <v>5.8599999999999999E-2</v>
+        <v>0.0586</v>
       </c>
       <c r="E21">
-        <v>5.8700000000000002E-2</v>
+        <v>0.0587</v>
       </c>
       <c r="F21">
-        <v>5.8900000000000001E-2</v>
+        <v>0.0589</v>
       </c>
       <c r="G21">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="H21">
-        <v>5.8099999999999999E-2</v>
+        <v>0.0581</v>
       </c>
       <c r="I21">
-        <v>5.6899999999999999E-2</v>
+        <v>0.0569</v>
       </c>
       <c r="J21">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="K21">
-        <v>5.6249999999999988E-2</v>
+        <v>0.05624999999999999</v>
       </c>
       <c r="L21">
-        <v>6.0500000000000012E-2</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="M21">
-        <v>7.0499999999999993E-2</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="N21">
-        <v>6.8500000000000005E-2</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="O21">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="P21">
-        <v>6.6500000000000004E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="Q21">
-        <v>7.2020000000000001E-2</v>
+        <v>0.07202</v>
       </c>
       <c r="R21">
-        <v>6.5491992272878136E-2</v>
+        <v>0.06549199227287814</v>
       </c>
       <c r="S21">
-        <v>5.7768180541875137E-2</v>
+        <v>0.05776818054187514</v>
       </c>
       <c r="T21">
-        <v>6.7989445160233919E-2</v>
+        <v>0.06798944516023392</v>
       </c>
       <c r="U21">
-        <v>5.7961275231862702E-2</v>
+        <v>0.0579612752318627</v>
       </c>
       <c r="V21">
-        <v>5.3053976219022358E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.05305397621902236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C22">
-        <v>6.9600000000000009E-2</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="D22">
-        <v>6.7599999999999993E-2</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="E22">
-        <v>6.6200000000000009E-2</v>
+        <v>0.06620000000000001</v>
       </c>
       <c r="F22">
-        <v>6.6400000000000001E-2</v>
+        <v>0.0664</v>
       </c>
       <c r="G22">
-        <v>6.4500000000000002E-2</v>
+        <v>0.0645</v>
       </c>
       <c r="H22">
-        <v>6.409999999999999E-2</v>
+        <v>0.06409999999999999</v>
       </c>
       <c r="I22">
-        <v>6.2899999999999998E-2</v>
+        <v>0.0629</v>
       </c>
       <c r="J22">
         <v>0.08</v>
       </c>
       <c r="K22">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="L22">
-        <v>7.2500000000000009E-2</v>
+        <v>0.07250000000000001</v>
       </c>
       <c r="M22">
-        <v>8.249999999999999E-2</v>
+        <v>0.08249999999999999</v>
       </c>
       <c r="N22">
-        <v>8.0500000000000002E-2</v>
+        <v>0.0805</v>
       </c>
       <c r="O22">
-        <v>7.400000000000001E-2</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="P22">
-        <v>8.1500000000000003E-2</v>
+        <v>0.0815</v>
       </c>
       <c r="Q22">
-        <v>8.7559999999999999E-2</v>
+        <v>0.08756</v>
       </c>
       <c r="R22">
-        <v>7.9598248243275105E-2</v>
+        <v>0.0795982482432751</v>
       </c>
       <c r="S22">
-        <v>6.9208476953908943E-2</v>
+        <v>0.06920847695390894</v>
       </c>
       <c r="T22">
-        <v>8.1763161094946329E-2</v>
+        <v>0.08176316109494633</v>
       </c>
       <c r="U22">
-        <v>6.7748443522980567E-2</v>
+        <v>0.06774844352298057</v>
       </c>
       <c r="V22">
-        <v>6.2664981951745621E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.06266498195174562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.10009999999999999</v>
+        <v>0.1001</v>
       </c>
       <c r="C23">
-        <v>0.10009999999999999</v>
+        <v>0.1001</v>
       </c>
       <c r="D23">
         <v>0.1726</v>
@@ -2008,123 +1956,123 @@
         <v>0.1457</v>
       </c>
       <c r="F23">
-        <v>0.13089999999999999</v>
+        <v>0.1309</v>
       </c>
       <c r="G23">
-        <v>0.10199999999999999</v>
+        <v>0.102</v>
       </c>
       <c r="H23">
-        <v>9.4099999999999989E-2</v>
+        <v>0.09409999999999999</v>
       </c>
       <c r="I23">
-        <v>9.2899999999999996E-2</v>
+        <v>0.0929</v>
       </c>
       <c r="J23">
         <v>0.12875</v>
       </c>
       <c r="K23">
-        <v>9.7500000000000003E-2</v>
+        <v>0.0975</v>
       </c>
       <c r="L23">
-        <v>9.1249999999999998E-2</v>
+        <v>0.09125</v>
       </c>
       <c r="M23">
-        <v>0.10125000000000001</v>
+        <v>0.10125</v>
       </c>
       <c r="N23">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="O23">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="P23">
-        <v>9.0499999999999997E-2</v>
+        <v>0.0905</v>
       </c>
       <c r="Q23">
-        <v>9.708E-2</v>
+        <v>0.09708</v>
       </c>
       <c r="R23">
-        <v>9.2422117307272317E-2</v>
+        <v>0.09242211730727232</v>
       </c>
       <c r="S23">
-        <v>7.9608746419394222E-2</v>
+        <v>0.07960874641939422</v>
       </c>
       <c r="T23">
         <v>0.1095610241631841</v>
       </c>
       <c r="U23">
-        <v>9.639815433879835E-2</v>
+        <v>0.09639815433879835</v>
       </c>
       <c r="V23">
         <v>0.10049739542692</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.4100000000000004E-2</v>
+        <v>0.0641</v>
       </c>
       <c r="C24">
-        <v>6.4100000000000004E-2</v>
+        <v>0.0641</v>
       </c>
       <c r="D24">
-        <v>6.3850000000000004E-2</v>
+        <v>0.06385</v>
       </c>
       <c r="E24">
-        <v>6.1699999999999998E-2</v>
+        <v>0.0617</v>
       </c>
       <c r="F24">
-        <v>6.0400000000000002E-2</v>
+        <v>0.0604</v>
       </c>
       <c r="G24">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="H24">
-        <v>5.8099999999999999E-2</v>
+        <v>0.0581</v>
       </c>
       <c r="I24">
-        <v>5.5399999999999998E-2</v>
+        <v>0.0554</v>
       </c>
       <c r="J24">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="K24">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="L24">
-        <v>5.7500000000000002E-2</v>
+        <v>0.0575</v>
       </c>
       <c r="M24">
-        <v>6.7500000000000004E-2</v>
+        <v>0.0675</v>
       </c>
       <c r="N24">
-        <v>6.5500000000000003E-2</v>
+        <v>0.0655</v>
       </c>
       <c r="O24">
-        <v>5.7500000000000002E-2</v>
+        <v>0.0575</v>
       </c>
       <c r="P24">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="Q24">
-        <v>7.034E-2</v>
+        <v>0.07034</v>
       </c>
       <c r="R24">
-        <v>6.3953127985198477E-2</v>
+        <v>0.06395312798519848</v>
       </c>
       <c r="S24">
-        <v>5.6520148206016897E-2</v>
+        <v>0.0565201482060169</v>
       </c>
       <c r="T24">
-        <v>6.6486857967356205E-2</v>
+        <v>0.06648685796735621</v>
       </c>
       <c r="U24">
-        <v>5.6893584145558937E-2</v>
+        <v>0.05689358414555894</v>
       </c>
       <c r="V24">
-        <v>5.2005502866361637E-2</v>
+        <v>0.05200550286636164</v>
       </c>
     </row>
   </sheetData>
